--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="451">
   <si>
     <t>واحد</t>
   </si>
@@ -1401,6 +1401,9 @@
   </si>
   <si>
     <t>1402/07/13</t>
+  </si>
+  <si>
+    <t>واریز شارژ مهرماه سلیمی</t>
   </si>
 </sst>
 </file>
@@ -2799,83 +2802,110 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -2886,9 +2916,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2899,30 +2926,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4663,16 +4666,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="170"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -4701,337 +4704,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="171">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="174" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="163" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="177"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="170">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152" t="s">
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="160" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="165" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="154"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="165"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="166">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="164" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="164" t="s">
+      <c r="F8" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="168" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="169" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="170">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152" t="s">
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="152" t="s">
+      <c r="F10" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="165" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="154"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="166">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="164" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="169" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="170">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152" t="s">
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="152" t="s">
+      <c r="F14" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="152" t="s">
+      <c r="G14" s="160" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="154" t="s">
+      <c r="H14" s="165" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="154"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="166">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="164" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="164" t="s">
+      <c r="F16" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="164" t="s">
+      <c r="G16" s="168" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="165" t="s">
+      <c r="H16" s="169" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="170">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152" t="s">
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="152" t="s">
+      <c r="F18" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="165" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="154"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="165"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="166">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="164" t="s">
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="164" t="s">
+      <c r="F20" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="165" t="s">
+      <c r="H20" s="169" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="165"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="169"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="170">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152" t="s">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="152" t="s">
+      <c r="F22" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="165" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="155"/>
+      <c r="A23" s="176"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="175"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5048,62 +5098,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5115,7 +5118,7 @@
   <dimension ref="A10:H33"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H32"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5129,16 +5132,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="170"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -5167,372 +5170,421 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="171">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="189" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="190" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="182" t="s">
+      <c r="F13" s="190" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="190" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="184" t="s">
+      <c r="H13" s="192" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="185"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="193"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="170">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="172" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="178" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="186" t="s">
+      <c r="D15" s="178" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="186" t="s">
+      <c r="E15" s="178" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="186" t="s">
+      <c r="F15" s="178" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="186" t="s">
+      <c r="G15" s="178" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="187" t="s">
+      <c r="H15" s="180" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="187"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="180"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="166">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="182" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="188" t="s">
+      <c r="E17" s="183" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="188" t="s">
+      <c r="F17" s="183" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="188" t="s">
+      <c r="G17" s="183" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="189" t="s">
+      <c r="H17" s="184" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="184"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="170">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="186" t="s">
+      <c r="C19" s="178" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="186" t="s">
+      <c r="D19" s="178" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="185" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="186" t="s">
+      <c r="F19" s="178" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="186" t="s">
+      <c r="G19" s="178" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="187">
+      <c r="H19" s="180">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="166"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="187"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="180"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="166">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="181" t="s">
+      <c r="C21" s="182" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="182" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="188" t="s">
+      <c r="E21" s="183" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="188" t="s">
+      <c r="F21" s="183" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="188" t="s">
+      <c r="G21" s="183" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="189" t="s">
+      <c r="H21" s="184" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="184"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="170">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="172" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="186" t="s">
+      <c r="C23" s="178" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="186" t="s">
+      <c r="D23" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="178" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="186" t="s">
+      <c r="F23" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="186" t="s">
+      <c r="G23" s="178" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="187" t="s">
+      <c r="H23" s="180" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="180"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="166">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C25" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="182" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="188" t="s">
+      <c r="E25" s="183" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="183" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="188" t="s">
+      <c r="G25" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="189" t="s">
+      <c r="H25" s="184" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="189"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="184"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="170">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="186" t="s">
+      <c r="C27" s="178" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="186" t="s">
+      <c r="D27" s="178" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="186" t="s">
+      <c r="E27" s="178" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="178" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="186"/>
-      <c r="H27" s="187"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="180"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="166"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="187"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="180"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="166">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="182" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="188" t="s">
+      <c r="E29" s="183" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="188" t="s">
+      <c r="F29" s="183" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="188" t="s">
+      <c r="G29" s="183" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="189" t="s">
+      <c r="H29" s="184" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="189"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="184"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="170">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="186" t="s">
+      <c r="C31" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="178" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="178" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="186" t="s">
+      <c r="G31" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="187" t="s">
+      <c r="H31" s="180" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="193"/>
+      <c r="A32" s="176"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="181"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5549,63 +5601,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5615,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
@@ -5625,16 +5628,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="170"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5663,273 +5666,320 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="171">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="187" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="184"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="192"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="185"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="170">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="187"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="180"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="180"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="166">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="189"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="184"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="189"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="170">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="178" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="178" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="178" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="180"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="166"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="180"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="166">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="182" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="181"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="184"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="189"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="184"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="170">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="178" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="187"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="166"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="166">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="181" t="s">
+      <c r="C15" s="182" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="181"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="189"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="189"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="184"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="170">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="187"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="180"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="166"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="187"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="166">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="182" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="184"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="184"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="170">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="187"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="180"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="193"/>
+      <c r="A22" s="176"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="181"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -5946,62 +5996,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7301,10 +7304,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9431,7 +9434,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E159" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E160" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -9805,6 +9808,21 @@
       <c r="E159" s="98">
         <f t="shared" si="2"/>
         <v>53455420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="80" t="s">
+        <v>450</v>
+      </c>
+      <c r="C160" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E160" s="98">
+        <f t="shared" si="2"/>
+        <v>55955420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="متفرقه" sheetId="11" r:id="rId8"/>
     <sheet name="گردش حساب تنخواه ساختمان" sheetId="15" r:id="rId9"/>
     <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId10"/>
-    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId11"/>
-    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId12"/>
+    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId11"/>
+    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId12"/>
     <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="459">
   <si>
     <t>واحد</t>
   </si>
@@ -1404,6 +1404,30 @@
   </si>
   <si>
     <t>واریز شارژ مهرماه سلیمی</t>
+  </si>
+  <si>
+    <t>1402/07/14</t>
+  </si>
+  <si>
+    <t>واریز شارژ مهرماه سعیدی</t>
+  </si>
+  <si>
+    <t>واریز شارژ آقای طاعتی</t>
+  </si>
+  <si>
+    <t>1402/07/16</t>
+  </si>
+  <si>
+    <t>نظافت مهر - آقای آذریان</t>
+  </si>
+  <si>
+    <t>1402/07/24</t>
+  </si>
+  <si>
+    <t>سرویس دوره ای آسانسور - مهر ماه</t>
+  </si>
+  <si>
+    <t>سرویس دوره‌ای مهرماه (شمس)</t>
   </si>
 </sst>
 </file>
@@ -2823,12 +2847,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -2840,93 +2951,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4650,9 +4674,510 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:H33"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="93" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="94" customWidth="1"/>
+    <col min="5" max="8" width="13.25" style="93" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="152" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="155">
+        <v>1</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="161" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="163" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="163" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="163" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="165" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="173">
+        <v>2</v>
+      </c>
+      <c r="B15" s="175" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="167" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="167" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="167" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="167" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="168" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="169">
+        <v>3</v>
+      </c>
+      <c r="B17" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="162" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="171" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="171" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="171" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="172" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="173">
+        <v>4</v>
+      </c>
+      <c r="B19" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="177" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="167" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="167" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" s="168">
+        <v>1402.0518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="169">
+        <v>5</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="162" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="171" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="171" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="171" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" s="172" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="173">
+        <v>6</v>
+      </c>
+      <c r="B23" s="175" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="167" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="167" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="167" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="168" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="169">
+        <v>7</v>
+      </c>
+      <c r="B25" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="162" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="171" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="171" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="172" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="173">
+        <v>8</v>
+      </c>
+      <c r="B27" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="167" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="167" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="167" t="s">
+        <v>388</v>
+      </c>
+      <c r="G27" s="167"/>
+      <c r="H27" s="168"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="169">
+        <v>9</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="162" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="171" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="171" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" s="171" t="s">
+        <v>389</v>
+      </c>
+      <c r="H29" s="172" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="173">
+        <v>10</v>
+      </c>
+      <c r="B31" s="175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="167" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="167" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="167" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="167" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="167" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="168" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
+    </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4710,330 +5235,379 @@
       <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="161" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="161" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="156"/>
       <c r="B5" s="158"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="164"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="160" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="171"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="165"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="166">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="168" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="168" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="169" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="156"/>
       <c r="B9" s="158"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="160" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="165" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="171"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="165"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="166">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="168" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="168" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="156"/>
       <c r="B13" s="158"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="169"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="160" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="165" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="171"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="165"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="168" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="168" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="169" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="156"/>
       <c r="B17" s="158"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="169"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="160" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="165" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="171"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="165"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="166">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="168" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="168" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="169" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="156"/>
       <c r="B21" s="158"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="169"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="170">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="160" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="176"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="175"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5050,567 +5624,17 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:H33"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.875" style="93" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="93" customWidth="1"/>
-    <col min="3" max="4" width="13.25" style="94" customWidth="1"/>
-    <col min="5" max="8" width="13.25" style="93" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="93"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
-        <v>1</v>
-      </c>
-      <c r="B13" s="157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="187" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="189" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="190" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="190" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="190" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="192" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="193"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170">
-        <v>2</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="178" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="178" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="178" t="s">
-        <v>341</v>
-      </c>
-      <c r="F15" s="178" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" s="178" t="s">
-        <v>401</v>
-      </c>
-      <c r="H15" s="180" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="180"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="166">
-        <v>3</v>
-      </c>
-      <c r="B17" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="182" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="182" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="183" t="s">
-        <v>320</v>
-      </c>
-      <c r="F17" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="183" t="s">
-        <v>389</v>
-      </c>
-      <c r="H17" s="184" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170">
-        <v>4</v>
-      </c>
-      <c r="B19" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="178" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="178" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="185" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" s="178" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="178" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="180">
-        <v>1402.0518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="171"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="180"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="166">
-        <v>5</v>
-      </c>
-      <c r="B21" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="183" t="s">
-        <v>316</v>
-      </c>
-      <c r="F21" s="183" t="s">
-        <v>316</v>
-      </c>
-      <c r="G21" s="183" t="s">
-        <v>413</v>
-      </c>
-      <c r="H21" s="184" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="184"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="170">
-        <v>6</v>
-      </c>
-      <c r="B23" s="172" t="s">
-        <v>425</v>
-      </c>
-      <c r="C23" s="178" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="178" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="178" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="178" t="s">
-        <v>352</v>
-      </c>
-      <c r="G23" s="178" t="s">
-        <v>390</v>
-      </c>
-      <c r="H23" s="180" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="180"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="166">
-        <v>7</v>
-      </c>
-      <c r="B25" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25" s="182" t="s">
-        <v>340</v>
-      </c>
-      <c r="E25" s="183" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="183" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" s="183" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="184" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="184"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="170">
-        <v>8</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="178" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="178" t="s">
-        <v>318</v>
-      </c>
-      <c r="E27" s="178" t="s">
-        <v>388</v>
-      </c>
-      <c r="F27" s="178" t="s">
-        <v>388</v>
-      </c>
-      <c r="G27" s="178"/>
-      <c r="H27" s="180"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="171"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="180"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="166">
-        <v>9</v>
-      </c>
-      <c r="B29" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="182" t="s">
-        <v>285</v>
-      </c>
-      <c r="D29" s="182" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="183" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29" s="183" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="183" t="s">
-        <v>389</v>
-      </c>
-      <c r="H29" s="184" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="184"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="170">
-        <v>10</v>
-      </c>
-      <c r="B31" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="178" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="178" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="178" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" s="178" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="178" t="s">
-        <v>352</v>
-      </c>
-      <c r="H31" s="180" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="181"/>
-    </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5619,7 +5643,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5672,266 +5696,319 @@
       <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="192"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="156"/>
       <c r="B4" s="158"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="193"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="170">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="180"/>
+      <c r="C5" s="167" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="171"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="180"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="166">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="184"/>
+      <c r="C7" s="162" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="162"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="156"/>
       <c r="B8" s="158"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="178" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="180"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="171"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="180"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="166">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="156"/>
       <c r="B12" s="158"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="170">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="180"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="171"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="166">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="156"/>
       <c r="B16" s="158"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="184"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="170">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="180"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="171"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="180"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="166">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="184"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="156"/>
       <c r="B20" s="158"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="184"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="170">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="180"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
       <c r="F22" s="179"/>
       <c r="G22" s="179"/>
-      <c r="H22" s="181"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -5948,63 +6025,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6015,7 +6043,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6182,7 +6210,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" s="44" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
+      <c r="A16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1900000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="18" spans="2:2" s="44" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="45"/>
@@ -6231,7 +6267,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6376,8 +6412,16 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="68">
+        <v>3000000</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68"/>
@@ -7304,10 +7348,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9434,7 +9478,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E160" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E164" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -9823,6 +9867,66 @@
       <c r="E160" s="98">
         <f t="shared" si="2"/>
         <v>55955420</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="C161" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E161" s="98">
+        <f t="shared" si="2"/>
+        <v>58455420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="C162" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E162" s="98">
+        <f t="shared" si="2"/>
+        <v>60955420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B163" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D163" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E163" s="98">
+        <f t="shared" si="2"/>
+        <v>57955420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B164" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" s="40">
+        <v>1900000</v>
+      </c>
+      <c r="E164" s="98">
+        <f t="shared" si="2"/>
+        <v>56055420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="466">
   <si>
     <t>واحد</t>
   </si>
@@ -1428,6 +1428,27 @@
   </si>
   <si>
     <t>سرویس دوره‌ای مهرماه (شمس)</t>
+  </si>
+  <si>
+    <t>1402/07/30</t>
+  </si>
+  <si>
+    <t>شارژ آبان ماه رویایی - واحد 9</t>
+  </si>
+  <si>
+    <t>1402/08/03</t>
+  </si>
+  <si>
+    <t>واریز شارژ - مرداد ، شهریور و مهر - آقای نامدار</t>
+  </si>
+  <si>
+    <t>واریز شارژ  آبان ماه خانم ضرغامی</t>
+  </si>
+  <si>
+    <t>1402/08/05</t>
+  </si>
+  <si>
+    <t>واریز شارژ آبان ماه سیلانی زاده</t>
   </si>
 </sst>
 </file>
@@ -3273,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4676,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4999,8 +5020,12 @@
       <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168"/>
+      <c r="G27" s="167" t="s">
+        <v>461</v>
+      </c>
+      <c r="H27" s="168" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="174"/>
@@ -5177,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5643,7 +5668,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5859,7 +5884,9 @@
       <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="162" t="s">
+        <v>464</v>
+      </c>
       <c r="E15" s="171"/>
       <c r="F15" s="171"/>
       <c r="G15" s="171"/>
@@ -5882,7 +5909,9 @@
       <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167"/>
+      <c r="C17" s="167" t="s">
+        <v>461</v>
+      </c>
       <c r="D17" s="167"/>
       <c r="E17" s="167"/>
       <c r="F17" s="167"/>
@@ -5909,7 +5938,9 @@
       <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="162" t="s">
+        <v>459</v>
+      </c>
       <c r="E19" s="171"/>
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
@@ -6612,7 +6643,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6744,7 +6775,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="39"/>
+      <c r="A13" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="39">
+        <v>10319000</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:3" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
@@ -6829,7 +6868,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6934,7 +6973,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="65" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="66"/>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="66">
+        <v>1066000</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="65" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
@@ -7348,10 +7395,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9478,7 +9525,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E164" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E170" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -9927,6 +9974,96 @@
       <c r="E164" s="98">
         <f t="shared" si="2"/>
         <v>56055420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B165" s="80" t="s">
+        <v>460</v>
+      </c>
+      <c r="C165" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E165" s="98">
+        <f t="shared" si="2"/>
+        <v>58555420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B166" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="C166" s="40">
+        <v>7500000</v>
+      </c>
+      <c r="E166" s="98">
+        <f t="shared" si="2"/>
+        <v>66055420</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B167" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="C167" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E167" s="98">
+        <f t="shared" si="2"/>
+        <v>68555420</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B168" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" s="40">
+        <v>10319000</v>
+      </c>
+      <c r="E168" s="98">
+        <f t="shared" si="2"/>
+        <v>58236420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B169" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D169" s="40">
+        <v>1066000</v>
+      </c>
+      <c r="E169" s="98">
+        <f t="shared" si="2"/>
+        <v>57170420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B170" s="80" t="s">
+        <v>465</v>
+      </c>
+      <c r="C170" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E170" s="98">
+        <f t="shared" si="2"/>
+        <v>59670420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,18 @@
     <sheet name="فاضلاب" sheetId="10" r:id="rId7"/>
     <sheet name="متفرقه" sheetId="11" r:id="rId8"/>
     <sheet name="گردش حساب تنخواه ساختمان" sheetId="15" r:id="rId9"/>
-    <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId10"/>
-    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId11"/>
-    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId12"/>
-    <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId10"/>
+    <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId11"/>
+    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId12"/>
+    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId13"/>
+    <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="474">
   <si>
     <t>واحد</t>
   </si>
@@ -1449,6 +1450,30 @@
   </si>
   <si>
     <t>واریز شارژ آبان ماه سیلانی زاده</t>
+  </si>
+  <si>
+    <t>1402/08/07</t>
+  </si>
+  <si>
+    <t>واریز شارژ مهر و آبان نویدیان</t>
+  </si>
+  <si>
+    <t>1402/08/18</t>
+  </si>
+  <si>
+    <t>واریز شارژ آبان ماه سلیمی</t>
+  </si>
+  <si>
+    <t>1402/08/15</t>
+  </si>
+  <si>
+    <t>واریز شارژ آبان ماه طاعتی</t>
+  </si>
+  <si>
+    <t>1402/08/12</t>
+  </si>
+  <si>
+    <t>واریز شارژ آبان نیک بخش</t>
   </si>
 </sst>
 </file>
@@ -3615,6 +3640,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4693,11 +4730,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5198,7 +5235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -5663,12 +5700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5724,7 +5761,9 @@
       <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161"/>
+      <c r="D3" s="161" t="s">
+        <v>461</v>
+      </c>
       <c r="E3" s="163"/>
       <c r="F3" s="163"/>
       <c r="G3" s="163"/>
@@ -5750,7 +5789,9 @@
       <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167"/>
+      <c r="D5" s="167" t="s">
+        <v>470</v>
+      </c>
       <c r="E5" s="167"/>
       <c r="F5" s="167"/>
       <c r="G5" s="167"/>
@@ -5832,7 +5873,9 @@
       <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="162" t="s">
+        <v>468</v>
+      </c>
       <c r="E11" s="171"/>
       <c r="F11" s="171"/>
       <c r="G11" s="171"/>
@@ -5858,7 +5901,9 @@
       <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="167" t="s">
+        <v>472</v>
+      </c>
       <c r="E13" s="167"/>
       <c r="F13" s="167"/>
       <c r="G13" s="167"/>
@@ -5963,8 +6008,12 @@
       <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
+      <c r="C21" s="167" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="167" t="s">
+        <v>466</v>
+      </c>
       <c r="E21" s="167"/>
       <c r="F21" s="167"/>
       <c r="G21" s="167"/>
@@ -7395,10 +7444,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView rightToLeft="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9525,7 +9574,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E170" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E174" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10064,6 +10113,66 @@
       <c r="E170" s="98">
         <f t="shared" si="2"/>
         <v>59670420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B171" s="80" t="s">
+        <v>467</v>
+      </c>
+      <c r="C171" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E171" s="98">
+        <f t="shared" si="2"/>
+        <v>64670420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B172" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E172" s="98">
+        <f t="shared" si="2"/>
+        <v>67170420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B173" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="C173" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E173" s="98">
+        <f t="shared" si="2"/>
+        <v>69670420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B174" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="C174" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E174" s="98">
+        <f t="shared" si="2"/>
+        <v>72170420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="482">
   <si>
     <t>واحد</t>
   </si>
@@ -1474,6 +1474,30 @@
   </si>
   <si>
     <t>واریز شارژ آبان نیک بخش</t>
+  </si>
+  <si>
+    <t>1402/09/05</t>
+  </si>
+  <si>
+    <t>1402/09/04</t>
+  </si>
+  <si>
+    <t>1402/09/01</t>
+  </si>
+  <si>
+    <t>1402/08/30</t>
+  </si>
+  <si>
+    <t>1402/08/25</t>
+  </si>
+  <si>
+    <t>1402/08/24</t>
+  </si>
+  <si>
+    <t>واریز شارژ جهانی/امیری</t>
+  </si>
+  <si>
+    <t>واریز شارژ آبان و آذر سعیدی</t>
   </si>
 </sst>
 </file>
@@ -2872,6 +2896,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2884,15 +2965,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2902,9 +2977,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2917,85 +2989,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4749,16 +4773,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4787,376 +4811,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5173,63 +5246,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5253,16 +5277,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5291,337 +5315,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5638,62 +5709,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5704,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5714,16 +5738,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5752,295 +5776,354 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="165"/>
+      <c r="E3" s="179" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="D7" s="164" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="165" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168"/>
+      <c r="E13" s="152" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="E15" s="165" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
+      <c r="E19" s="165" t="s">
+        <v>477</v>
+      </c>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="166"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6057,62 +6140,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7444,10 +7480,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9574,7 +9610,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E174" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E181" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10173,6 +10209,111 @@
       <c r="E174" s="98">
         <f t="shared" si="2"/>
         <v>72170420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D175" s="40">
+        <v>1200000</v>
+      </c>
+      <c r="E175" s="98">
+        <f t="shared" si="2"/>
+        <v>70970420</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B176" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D176" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E176" s="98">
+        <f t="shared" si="2"/>
+        <v>67970420</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B177" s="80" t="s">
+        <v>480</v>
+      </c>
+      <c r="C177" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E177" s="98">
+        <f t="shared" si="2"/>
+        <v>70470420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B178" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="C178" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E178" s="98">
+        <f t="shared" si="2"/>
+        <v>75470420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C179" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E179" s="98">
+        <f t="shared" si="2"/>
+        <v>77970420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B180" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="C180" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E180" s="98">
+        <f t="shared" si="2"/>
+        <v>80470420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B181" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="C181" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E181" s="98">
+        <f t="shared" si="2"/>
+        <v>82970420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="487">
   <si>
     <t>واحد</t>
   </si>
@@ -1498,6 +1498,21 @@
   </si>
   <si>
     <t>واریز شارژ آبان و آذر سعیدی</t>
+  </si>
+  <si>
+    <t>1402/09/10</t>
+  </si>
+  <si>
+    <t>پرداخت بیعانه برای ساخت درب زیر راه پله</t>
+  </si>
+  <si>
+    <t>1402/09/14</t>
+  </si>
+  <si>
+    <t>تسویه حساب هزینه ساخت و نصب در زیر راه پله</t>
+  </si>
+  <si>
+    <t>1402/09/16</t>
   </si>
 </sst>
 </file>
@@ -2896,105 +2911,120 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -3005,21 +3035,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4773,16 +4788,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4811,377 +4826,424 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="165" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="173">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="175" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="168" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="169">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="172" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="168">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="169">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="172" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="173">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="167" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="168" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="169">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="162" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="171" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="172" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="173">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="168" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="169">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="172" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="173">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="168" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
@@ -5198,62 +5260,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5277,16 +5292,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5315,336 +5330,385 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5661,63 +5725,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5728,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
@@ -5738,16 +5753,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5776,306 +5791,357 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="181"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="E5" s="167" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="162" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="171" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="154"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="154"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="162" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="154"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="166"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="154"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="166"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -6092,63 +6158,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7480,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView rightToLeft="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9610,7 +9627,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E181" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E184" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10314,6 +10331,51 @@
       <c r="E181" s="98">
         <f t="shared" si="2"/>
         <v>82970420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B182" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="D182" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="E182" s="98">
+        <f t="shared" si="2"/>
+        <v>72970420</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B183" s="80" t="s">
+        <v>485</v>
+      </c>
+      <c r="D183" s="40">
+        <v>30000000</v>
+      </c>
+      <c r="E183" s="98">
+        <f t="shared" si="2"/>
+        <v>42970420</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B184" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C184" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E184" s="98">
+        <f t="shared" si="2"/>
+        <v>45470420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="489">
   <si>
     <t>واحد</t>
   </si>
@@ -1513,6 +1513,12 @@
   </si>
   <si>
     <t>1402/09/16</t>
+  </si>
+  <si>
+    <t>1402/09/17</t>
+  </si>
+  <si>
+    <t>خرید رنگ و وسایل نقاشی جهت درب زیر راه پله</t>
   </si>
 </sst>
 </file>
@@ -2911,6 +2917,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2923,15 +2986,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2941,9 +2998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2956,85 +3010,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4773,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4788,16 +4794,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4826,376 +4832,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5212,63 +5267,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5292,16 +5298,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5330,337 +5336,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5677,62 +5730,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5743,7 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
@@ -5753,16 +5759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5791,309 +5797,356 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="165"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="166"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6110,62 +6163,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7497,10 +7503,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9627,7 +9633,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E184" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E185" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10376,6 +10382,21 @@
       <c r="E184" s="98">
         <f t="shared" si="2"/>
         <v>45470420</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B185" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="D185" s="40">
+        <v>1870000</v>
+      </c>
+      <c r="E185" s="98">
+        <f t="shared" si="2"/>
+        <v>43600420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="490">
   <si>
     <t>واحد</t>
   </si>
@@ -1519,6 +1519,9 @@
   </si>
   <si>
     <t>خرید رنگ و وسایل نقاشی جهت درب زیر راه پله</t>
+  </si>
+  <si>
+    <t>1402/09/24</t>
   </si>
 </sst>
 </file>
@@ -2917,105 +2920,120 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -3026,21 +3044,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -3364,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4794,16 +4797,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4832,377 +4835,424 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="165" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="173">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="175" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="168" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="169">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="172" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="168">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="169">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="172" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="173">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="167" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="168" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="169">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="162" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="171" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="172" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="173">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="168" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="169">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="172" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="173">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="168" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
@@ -5219,62 +5269,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5298,16 +5301,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5336,336 +5339,385 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5682,63 +5734,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5759,16 +5762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5797,308 +5800,357 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="181"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="167" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="162" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="171" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="154"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="154"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="162" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="154"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="166"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="154"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="166"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -6115,63 +6167,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6751,7 +6754,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6976,7 +6979,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7089,6 +7092,17 @@
       </c>
       <c r="C10" s="65" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="40">
+        <v>762000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="65" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7503,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9633,7 +9647,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E185" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E186" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10397,6 +10411,21 @@
       <c r="E185" s="98">
         <f t="shared" si="2"/>
         <v>43600420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B186" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" s="40">
+        <v>762000</v>
+      </c>
+      <c r="E186" s="98">
+        <f t="shared" si="2"/>
+        <v>42838420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="492">
   <si>
     <t>واحد</t>
   </si>
@@ -1522,6 +1522,12 @@
   </si>
   <si>
     <t>1402/09/24</t>
+  </si>
+  <si>
+    <t>1402/09/27</t>
+  </si>
+  <si>
+    <t>نظافت ساختمان و خرید پودر لباسشویی</t>
   </si>
 </sst>
 </file>
@@ -2920,6 +2926,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2932,15 +2995,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2950,9 +3007,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2965,85 +3019,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4797,16 +4803,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4835,376 +4841,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5221,63 +5276,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5301,16 +5307,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5339,337 +5345,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5686,62 +5739,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5762,16 +5768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5800,309 +5806,356 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="165"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="166"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6119,62 +6172,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7517,10 +7523,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9647,7 +9653,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E186" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E187" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10426,6 +10432,21 @@
       <c r="E186" s="98">
         <f t="shared" si="2"/>
         <v>42838420</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B187" s="80" t="s">
+        <v>491</v>
+      </c>
+      <c r="D187" s="40">
+        <v>3170000</v>
+      </c>
+      <c r="E187" s="98">
+        <f t="shared" si="2"/>
+        <v>39668420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="نظافت" sheetId="3" r:id="rId3"/>
     <sheet name="پمپ آب" sheetId="4" r:id="rId4"/>
     <sheet name="هزینه‌های آب" sheetId="14" r:id="rId5"/>
-    <sheet name="هزینه‌های برق" sheetId="6" r:id="rId6"/>
-    <sheet name="فاضلاب" sheetId="10" r:id="rId7"/>
-    <sheet name="متفرقه" sheetId="11" r:id="rId8"/>
-    <sheet name="گردش حساب تنخواه ساختمان" sheetId="15" r:id="rId9"/>
+    <sheet name="گردش حساب تنخواه ساختمان" sheetId="15" r:id="rId6"/>
+    <sheet name="هزینه‌های برق" sheetId="6" r:id="rId7"/>
+    <sheet name="فاضلاب" sheetId="10" r:id="rId8"/>
+    <sheet name="متفرقه" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId10"/>
     <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId11"/>
     <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId12"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="495">
   <si>
     <t>واحد</t>
   </si>
@@ -1528,6 +1528,15 @@
   </si>
   <si>
     <t>نظافت ساختمان و خرید پودر لباسشویی</t>
+  </si>
+  <si>
+    <t>1402/09/29</t>
+  </si>
+  <si>
+    <t>1402/10/08</t>
+  </si>
+  <si>
+    <t>واریز شارژ رویایی</t>
   </si>
 </sst>
 </file>
@@ -5758,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5821,7 +5830,9 @@
       <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179"/>
+      <c r="F3" s="179" t="s">
+        <v>493</v>
+      </c>
       <c r="G3" s="179"/>
       <c r="H3" s="181"/>
     </row>
@@ -5969,7 +5980,9 @@
       <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152"/>
+      <c r="F13" s="152" t="s">
+        <v>492</v>
+      </c>
       <c r="G13" s="152"/>
       <c r="H13" s="154"/>
     </row>
@@ -5999,7 +6012,9 @@
       <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165"/>
+      <c r="F15" s="165" t="s">
+        <v>493</v>
+      </c>
       <c r="G15" s="165"/>
       <c r="H15" s="166"/>
     </row>
@@ -6039,7 +6054,7 @@
       <c r="G18" s="152"/>
       <c r="H18" s="154"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="160">
         <v>9</v>
       </c>
@@ -6055,11 +6070,13 @@
       <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165"/>
+      <c r="F19" s="165" t="s">
+        <v>493</v>
+      </c>
       <c r="G19" s="165"/>
       <c r="H19" s="166"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="161"/>
       <c r="B20" s="163"/>
       <c r="C20" s="164"/>
@@ -6760,7 +6777,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6902,6 +6919,17 @@
         <v>464</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="40">
+        <v>7509000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
     </row>
@@ -6981,6 +7009,3018 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H192"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.25" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="58">
+        <v>16115000</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="61">
+        <f>C3-D3</f>
+        <v>16115000</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="56">
+        <v>492063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E4" s="62">
+        <f>C4-D4+E3</f>
+        <v>19115000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="63">
+        <f t="shared" ref="E5:E69" si="0">C5-D5+E4</f>
+        <v>20615000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E6" s="62">
+        <f t="shared" si="0"/>
+        <v>22115000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="63">
+        <f t="shared" si="0"/>
+        <v>23615000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="40">
+        <v>1500300</v>
+      </c>
+      <c r="E8" s="62">
+        <f t="shared" si="0"/>
+        <v>22114700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55">
+        <v>3212000</v>
+      </c>
+      <c r="E9" s="63">
+        <f t="shared" si="0"/>
+        <v>18902700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E10" s="62">
+        <f>C10-D10+E9</f>
+        <v>20402700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55">
+        <v>5006000</v>
+      </c>
+      <c r="E11" s="63">
+        <f t="shared" si="0"/>
+        <v>15396700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="40">
+        <v>2706000</v>
+      </c>
+      <c r="E12" s="62">
+        <f t="shared" si="0"/>
+        <v>12690700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="63">
+        <f t="shared" si="0"/>
+        <v>14190700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E14" s="62">
+        <f t="shared" si="0"/>
+        <v>15690700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
+        <v>6506000</v>
+      </c>
+      <c r="E15" s="63">
+        <f t="shared" si="0"/>
+        <v>9184700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="40">
+        <v>3006000</v>
+      </c>
+      <c r="E16" s="62">
+        <f t="shared" si="0"/>
+        <v>6178700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="55">
+        <v>1700000</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="63">
+        <f t="shared" si="0"/>
+        <v>7878700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1700000</v>
+      </c>
+      <c r="E18" s="62">
+        <f t="shared" si="0"/>
+        <v>9578700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="55">
+        <v>1700000</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="63">
+        <f t="shared" si="0"/>
+        <v>11278700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1700000</v>
+      </c>
+      <c r="E20" s="62">
+        <f t="shared" si="0"/>
+        <v>12978700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1700000</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="63">
+        <f t="shared" si="0"/>
+        <v>14678700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1700000</v>
+      </c>
+      <c r="E22" s="62">
+        <f t="shared" si="0"/>
+        <v>16378700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="55">
+        <v>1700000</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="63">
+        <f t="shared" si="0"/>
+        <v>18078700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1700000</v>
+      </c>
+      <c r="E24" s="62">
+        <f t="shared" si="0"/>
+        <v>19778700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55">
+        <v>1006000</v>
+      </c>
+      <c r="E25" s="63">
+        <f t="shared" si="0"/>
+        <v>18772700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="40">
+        <v>2439000</v>
+      </c>
+      <c r="E26" s="62">
+        <f t="shared" si="0"/>
+        <v>16333700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55">
+        <v>1393000</v>
+      </c>
+      <c r="E27" s="63">
+        <f t="shared" si="0"/>
+        <v>14940700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="40">
+        <v>3700000</v>
+      </c>
+      <c r="E28" s="62">
+        <f t="shared" si="0"/>
+        <v>18640700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="63">
+        <f t="shared" si="0"/>
+        <v>20140700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E30" s="62">
+        <f t="shared" si="0"/>
+        <v>21640700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="63">
+        <f t="shared" si="0"/>
+        <v>23140700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E32" s="62">
+        <f t="shared" si="0"/>
+        <v>25640700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="63">
+        <f t="shared" si="0"/>
+        <v>27140700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E34" s="62">
+        <f t="shared" si="0"/>
+        <v>28640700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="55">
+        <v>1500000</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="82">
+        <f t="shared" si="0"/>
+        <v>30140700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="40">
+        <v>1806000</v>
+      </c>
+      <c r="E36" s="62">
+        <f t="shared" si="0"/>
+        <v>28334700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="55">
+        <v>4000000</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="82">
+        <f t="shared" si="0"/>
+        <v>32334700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="40">
+        <v>1206000</v>
+      </c>
+      <c r="E38" s="85">
+        <f t="shared" si="0"/>
+        <v>31128700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55">
+        <v>2456000</v>
+      </c>
+      <c r="E39" s="82">
+        <f t="shared" si="0"/>
+        <v>28672700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E40" s="85">
+        <f t="shared" si="0"/>
+        <v>31172700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="55">
+        <v>2500000</v>
+      </c>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82">
+        <f t="shared" si="0"/>
+        <v>33672700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E42" s="85">
+        <f t="shared" si="0"/>
+        <v>36172700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="55">
+        <v>2500000</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="82">
+        <f t="shared" si="0"/>
+        <v>38672700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E44" s="85">
+        <f t="shared" si="0"/>
+        <v>41172700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="55">
+        <v>2500000</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="E45" s="82">
+        <f t="shared" si="0"/>
+        <v>43672700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="40">
+        <v>4152000</v>
+      </c>
+      <c r="E46" s="85">
+        <f t="shared" si="0"/>
+        <v>39520700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55">
+        <v>1506000</v>
+      </c>
+      <c r="E47" s="82">
+        <f t="shared" si="0"/>
+        <v>38014700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="40">
+        <v>2506000</v>
+      </c>
+      <c r="E48" s="85">
+        <f t="shared" si="0"/>
+        <v>35508700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81">
+        <v>3356000</v>
+      </c>
+      <c r="E49" s="82">
+        <f t="shared" si="0"/>
+        <v>32152700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="40">
+        <v>1751000</v>
+      </c>
+      <c r="E50" s="85">
+        <f t="shared" si="0"/>
+        <v>30401700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81">
+        <v>510300</v>
+      </c>
+      <c r="E51" s="82">
+        <f t="shared" si="0"/>
+        <v>29891400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E52" s="85">
+        <f t="shared" si="0"/>
+        <v>32391400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82">
+        <f t="shared" si="0"/>
+        <v>34891400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E54" s="85">
+        <f t="shared" si="0"/>
+        <v>37391400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82">
+        <f t="shared" si="0"/>
+        <v>39891400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="85">
+        <f t="shared" si="0"/>
+        <v>42391400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="81">
+        <v>17000000</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82">
+        <f t="shared" si="0"/>
+        <v>59391400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="51">
+        <v>17000000</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="85">
+        <f t="shared" si="0"/>
+        <v>76391400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="81">
+        <v>17000000</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82">
+        <f t="shared" si="0"/>
+        <v>93391400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="51">
+        <v>19500000</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="85">
+        <f t="shared" si="0"/>
+        <v>112891400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="81">
+        <v>17000000</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82">
+        <f t="shared" si="0"/>
+        <v>129891400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="51">
+        <v>20000000</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="85">
+        <f t="shared" si="0"/>
+        <v>149891400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="81">
+        <v>19500000</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82">
+        <f t="shared" si="0"/>
+        <v>169391400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="51">
+        <v>17000000</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="85">
+        <f t="shared" si="0"/>
+        <v>186391400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="81">
+        <v>4500000</v>
+      </c>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82">
+        <f t="shared" si="0"/>
+        <v>190891400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="51">
+        <v>5000000</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="85">
+        <f t="shared" si="0"/>
+        <v>195891400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="81">
+        <v>17000000</v>
+      </c>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82">
+        <f t="shared" si="0"/>
+        <v>212891400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51">
+        <v>50015600</v>
+      </c>
+      <c r="E68" s="85">
+        <f t="shared" si="0"/>
+        <v>162875800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81">
+        <v>407000</v>
+      </c>
+      <c r="E69" s="82">
+        <f t="shared" si="0"/>
+        <v>162468800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51">
+        <v>4513000</v>
+      </c>
+      <c r="E70" s="85">
+        <f t="shared" ref="E70:E134" si="1">C70-D70+E69</f>
+        <v>157955800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81">
+        <v>1206000</v>
+      </c>
+      <c r="E71" s="82">
+        <f t="shared" si="1"/>
+        <v>156749800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="51">
+        <v>17000000</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="85">
+        <f t="shared" si="1"/>
+        <v>173749800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81">
+        <v>5206000</v>
+      </c>
+      <c r="E73" s="82">
+        <f t="shared" si="1"/>
+        <v>168543800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="85">
+        <f t="shared" si="1"/>
+        <v>171043800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D75" s="81"/>
+      <c r="E75" s="82">
+        <f t="shared" si="1"/>
+        <v>173543800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="51">
+        <v>2000000</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="85">
+        <f t="shared" si="1"/>
+        <v>175543800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81">
+        <v>2500300</v>
+      </c>
+      <c r="E77" s="82">
+        <f t="shared" si="1"/>
+        <v>173043500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="88" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="90">
+        <v>2500000</v>
+      </c>
+      <c r="D78" s="90"/>
+      <c r="E78" s="91">
+        <f t="shared" si="1"/>
+        <v>175543500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D79" s="81"/>
+      <c r="E79" s="82">
+        <f t="shared" si="1"/>
+        <v>178043500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51">
+        <v>7000</v>
+      </c>
+      <c r="E80" s="85">
+        <f>C80-D80+E79</f>
+        <v>178036500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81">
+        <v>100000</v>
+      </c>
+      <c r="E81" s="82">
+        <f t="shared" si="1"/>
+        <v>177936500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51">
+        <v>100000</v>
+      </c>
+      <c r="E82" s="85">
+        <f t="shared" si="1"/>
+        <v>177836500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81">
+        <v>3353000</v>
+      </c>
+      <c r="E83" s="82">
+        <f t="shared" si="1"/>
+        <v>174483500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51">
+        <v>500300</v>
+      </c>
+      <c r="E84" s="85">
+        <f t="shared" si="1"/>
+        <v>173983200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81">
+        <v>100027600</v>
+      </c>
+      <c r="E85" s="82">
+        <f t="shared" si="1"/>
+        <v>73955600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D86" s="51"/>
+      <c r="E86" s="85">
+        <f t="shared" si="1"/>
+        <v>76455600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="81">
+        <v>1000000</v>
+      </c>
+      <c r="D87" s="81"/>
+      <c r="E87" s="82">
+        <f t="shared" si="1"/>
+        <v>77455600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51">
+        <v>30010800</v>
+      </c>
+      <c r="E88" s="85">
+        <f t="shared" si="1"/>
+        <v>47444800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81">
+        <v>1206000</v>
+      </c>
+      <c r="E89" s="82">
+        <f t="shared" si="1"/>
+        <v>46238800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D90" s="51"/>
+      <c r="E90" s="85">
+        <f t="shared" si="1"/>
+        <v>48738800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D91" s="81"/>
+      <c r="E91" s="82">
+        <f t="shared" si="1"/>
+        <v>51238800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B92" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51">
+        <v>15008400</v>
+      </c>
+      <c r="E92" s="85">
+        <f t="shared" si="1"/>
+        <v>36230400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="B93" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81">
+        <v>2870300</v>
+      </c>
+      <c r="E93" s="82">
+        <f t="shared" si="1"/>
+        <v>33360100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C94" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E94" s="85">
+        <f t="shared" si="1"/>
+        <v>35860100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81">
+        <v>2106000</v>
+      </c>
+      <c r="E95" s="82">
+        <f t="shared" si="1"/>
+        <v>33754100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E96" s="85">
+        <f t="shared" si="1"/>
+        <v>36254100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" s="83" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="81">
+        <v>5000000</v>
+      </c>
+      <c r="D97" s="81"/>
+      <c r="E97" s="82">
+        <f t="shared" si="1"/>
+        <v>41254100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E98" s="85">
+        <f t="shared" si="1"/>
+        <v>43754100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="81">
+        <v>740000</v>
+      </c>
+      <c r="D99" s="81"/>
+      <c r="E99" s="82">
+        <f t="shared" si="1"/>
+        <v>44494100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="E100" s="85">
+        <f t="shared" si="1"/>
+        <v>54494100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="81"/>
+      <c r="D101" s="81">
+        <v>672000</v>
+      </c>
+      <c r="E101" s="82">
+        <f t="shared" si="1"/>
+        <v>53822100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E102" s="85">
+        <f t="shared" si="1"/>
+        <v>56322100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81">
+        <v>1200300</v>
+      </c>
+      <c r="E103" s="82">
+        <f t="shared" si="1"/>
+        <v>55121800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B104" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C104" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E104" s="85">
+        <f t="shared" si="1"/>
+        <v>60121800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="83" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D105" s="81"/>
+      <c r="E105" s="82">
+        <f t="shared" si="1"/>
+        <v>62621800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E106" s="85">
+        <f t="shared" si="1"/>
+        <v>65121800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="B107" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="81">
+        <v>1000000</v>
+      </c>
+      <c r="D107" s="81"/>
+      <c r="E107" s="82">
+        <f t="shared" si="1"/>
+        <v>66121800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E108" s="85">
+        <f t="shared" si="1"/>
+        <v>68621800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81">
+        <v>9154000</v>
+      </c>
+      <c r="E109" s="82">
+        <f t="shared" si="1"/>
+        <v>59467800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="C110" s="40">
+        <v>1584600</v>
+      </c>
+      <c r="E110" s="85">
+        <f t="shared" si="1"/>
+        <v>61052400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="81">
+        <v>5000000</v>
+      </c>
+      <c r="D111" s="81"/>
+      <c r="E111" s="82">
+        <f t="shared" si="1"/>
+        <v>66052400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B112" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="40">
+        <v>2170300</v>
+      </c>
+      <c r="E112" s="85">
+        <f t="shared" si="1"/>
+        <v>63882100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="81"/>
+      <c r="D113" s="81">
+        <v>1206000</v>
+      </c>
+      <c r="E113" s="82">
+        <f t="shared" si="1"/>
+        <v>62676100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E114" s="85">
+        <f t="shared" si="1"/>
+        <v>65176100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D115" s="81"/>
+      <c r="E115" s="82">
+        <f t="shared" si="1"/>
+        <v>67676100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E116" s="85">
+        <f t="shared" si="1"/>
+        <v>72676100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="81">
+        <v>3150000</v>
+      </c>
+      <c r="D117" s="81"/>
+      <c r="E117" s="82">
+        <f t="shared" si="1"/>
+        <v>75826100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E118" s="85">
+        <f t="shared" si="1"/>
+        <v>78326100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="81"/>
+      <c r="D119" s="81">
+        <v>650360</v>
+      </c>
+      <c r="E119" s="82">
+        <f t="shared" si="1"/>
+        <v>77675740</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E120" s="85">
+        <f t="shared" si="1"/>
+        <v>80175740</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C121" s="81"/>
+      <c r="D121" s="81">
+        <v>1210000</v>
+      </c>
+      <c r="E121" s="82">
+        <f t="shared" si="1"/>
+        <v>78965740</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="D122" s="40">
+        <v>8847000</v>
+      </c>
+      <c r="E122" s="85">
+        <f t="shared" si="1"/>
+        <v>70118740</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" s="81">
+        <v>1620000</v>
+      </c>
+      <c r="D123" s="81"/>
+      <c r="E123" s="82">
+        <f t="shared" si="1"/>
+        <v>71738740</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124" s="40">
+        <v>457200</v>
+      </c>
+      <c r="E124" s="85">
+        <f t="shared" si="1"/>
+        <v>71281540</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="B125" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="81"/>
+      <c r="D125" s="81">
+        <v>3000360</v>
+      </c>
+      <c r="E125" s="82">
+        <f t="shared" si="1"/>
+        <v>68281180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B126" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" s="40">
+        <v>1450360</v>
+      </c>
+      <c r="E126" s="85">
+        <f t="shared" si="1"/>
+        <v>66830820</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="81"/>
+      <c r="D127" s="81">
+        <v>5007200</v>
+      </c>
+      <c r="E127" s="82">
+        <f t="shared" si="1"/>
+        <v>61823620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B128" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="40">
+        <v>1207200</v>
+      </c>
+      <c r="E128" s="85">
+        <f t="shared" si="1"/>
+        <v>60616420</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" s="81">
+        <v>5000000</v>
+      </c>
+      <c r="D129" s="81"/>
+      <c r="E129" s="82">
+        <f t="shared" si="1"/>
+        <v>65616420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B130" s="80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E130" s="85">
+        <f t="shared" si="1"/>
+        <v>68116420</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D131" s="81"/>
+      <c r="E131" s="82">
+        <f t="shared" si="1"/>
+        <v>70616420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E132" s="85">
+        <f t="shared" si="1"/>
+        <v>73116420</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="C133" s="81">
+        <v>2500000</v>
+      </c>
+      <c r="D133" s="81"/>
+      <c r="E133" s="82">
+        <f>C133-D133+E132</f>
+        <v>75616420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="95" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="C134" s="97">
+        <v>1500000</v>
+      </c>
+      <c r="D134" s="97"/>
+      <c r="E134" s="98">
+        <f t="shared" si="1"/>
+        <v>77116420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" s="105" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" s="106"/>
+      <c r="D135" s="106">
+        <v>1600000</v>
+      </c>
+      <c r="E135" s="102">
+        <f t="shared" ref="E135:E192" si="2">C135-D135+E134</f>
+        <v>75516420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="100" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="101">
+        <v>2500000</v>
+      </c>
+      <c r="D136" s="101"/>
+      <c r="E136" s="103">
+        <f t="shared" si="2"/>
+        <v>78016420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="104" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="106"/>
+      <c r="D137" s="106">
+        <v>3000000</v>
+      </c>
+      <c r="E137" s="102">
+        <f t="shared" si="2"/>
+        <v>75016420</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="97">
+        <v>7500000</v>
+      </c>
+      <c r="D138" s="97"/>
+      <c r="E138" s="98">
+        <f t="shared" si="2"/>
+        <v>82516420</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51">
+        <v>1200000</v>
+      </c>
+      <c r="E139" s="98">
+        <f t="shared" si="2"/>
+        <v>81316420</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="51">
+        <v>5000000</v>
+      </c>
+      <c r="D140" s="51"/>
+      <c r="E140" s="98">
+        <f t="shared" si="2"/>
+        <v>86316420</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D141" s="51"/>
+      <c r="E141" s="98">
+        <f t="shared" si="2"/>
+        <v>88816420</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="C142" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D142" s="51"/>
+      <c r="E142" s="98">
+        <f t="shared" si="2"/>
+        <v>91316420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51">
+        <v>4779000</v>
+      </c>
+      <c r="E143" s="98">
+        <f t="shared" si="2"/>
+        <v>86537420</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="B144" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51">
+        <v>1262000</v>
+      </c>
+      <c r="E144" s="98">
+        <f t="shared" si="2"/>
+        <v>85275420</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="B145" s="86" t="s">
+        <v>421</v>
+      </c>
+      <c r="C145" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D145" s="51"/>
+      <c r="E145" s="98">
+        <f t="shared" si="2"/>
+        <v>87775420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="B146" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="C146" s="51">
+        <v>2500000</v>
+      </c>
+      <c r="D146" s="51"/>
+      <c r="E146" s="98">
+        <f t="shared" si="2"/>
+        <v>90275420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51">
+        <v>4000000</v>
+      </c>
+      <c r="E147" s="98">
+        <f t="shared" si="2"/>
+        <v>86275420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B148" s="80" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" s="40">
+        <v>170000</v>
+      </c>
+      <c r="E148" s="98">
+        <f t="shared" si="2"/>
+        <v>86105420</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B149" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C149" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E149" s="98">
+        <f t="shared" si="2"/>
+        <v>88605420</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B150" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C150" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E150" s="98">
+        <f t="shared" si="2"/>
+        <v>91105420</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B151" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D151" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E151" s="98">
+        <f t="shared" si="2"/>
+        <v>88105420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B152" s="80" t="s">
+        <v>436</v>
+      </c>
+      <c r="D152" s="40">
+        <v>7950000</v>
+      </c>
+      <c r="E152" s="98">
+        <f t="shared" si="2"/>
+        <v>80155420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B153" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="D153" s="40">
+        <v>43000000</v>
+      </c>
+      <c r="E153" s="98">
+        <f t="shared" si="2"/>
+        <v>37155420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B154" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="D154" s="51">
+        <v>1200000</v>
+      </c>
+      <c r="E154" s="98">
+        <f t="shared" si="2"/>
+        <v>35955420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="80" t="s">
+        <v>440</v>
+      </c>
+      <c r="C155" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E155" s="98">
+        <f t="shared" si="2"/>
+        <v>38455420</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E156" s="98">
+        <f t="shared" si="2"/>
+        <v>40955420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B157" s="80" t="s">
+        <v>443</v>
+      </c>
+      <c r="C157" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E157" s="98">
+        <f t="shared" si="2"/>
+        <v>43455420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B158" s="80" t="s">
+        <v>444</v>
+      </c>
+      <c r="C158" s="40">
+        <v>7500000</v>
+      </c>
+      <c r="E158" s="98">
+        <f t="shared" si="2"/>
+        <v>50955420</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B159" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="C159" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E159" s="98">
+        <f t="shared" si="2"/>
+        <v>53455420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="80" t="s">
+        <v>450</v>
+      </c>
+      <c r="C160" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E160" s="98">
+        <f t="shared" si="2"/>
+        <v>55955420</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B161" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="C161" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E161" s="98">
+        <f t="shared" si="2"/>
+        <v>58455420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="C162" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E162" s="98">
+        <f t="shared" si="2"/>
+        <v>60955420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B163" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D163" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E163" s="98">
+        <f t="shared" si="2"/>
+        <v>57955420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B164" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" s="40">
+        <v>1900000</v>
+      </c>
+      <c r="E164" s="98">
+        <f t="shared" si="2"/>
+        <v>56055420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B165" s="80" t="s">
+        <v>460</v>
+      </c>
+      <c r="C165" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E165" s="98">
+        <f t="shared" si="2"/>
+        <v>58555420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B166" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="C166" s="40">
+        <v>7500000</v>
+      </c>
+      <c r="E166" s="98">
+        <f t="shared" si="2"/>
+        <v>66055420</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B167" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="C167" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E167" s="98">
+        <f t="shared" si="2"/>
+        <v>68555420</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B168" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" s="40">
+        <v>10319000</v>
+      </c>
+      <c r="E168" s="98">
+        <f t="shared" si="2"/>
+        <v>58236420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B169" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D169" s="40">
+        <v>1066000</v>
+      </c>
+      <c r="E169" s="98">
+        <f t="shared" si="2"/>
+        <v>57170420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B170" s="80" t="s">
+        <v>465</v>
+      </c>
+      <c r="C170" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E170" s="98">
+        <f t="shared" si="2"/>
+        <v>59670420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B171" s="80" t="s">
+        <v>467</v>
+      </c>
+      <c r="C171" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E171" s="98">
+        <f t="shared" si="2"/>
+        <v>64670420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B172" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E172" s="98">
+        <f t="shared" si="2"/>
+        <v>67170420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B173" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="C173" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E173" s="98">
+        <f t="shared" si="2"/>
+        <v>69670420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B174" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="C174" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E174" s="98">
+        <f t="shared" si="2"/>
+        <v>72170420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D175" s="40">
+        <v>1200000</v>
+      </c>
+      <c r="E175" s="98">
+        <f t="shared" si="2"/>
+        <v>70970420</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B176" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D176" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E176" s="98">
+        <f t="shared" si="2"/>
+        <v>67970420</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B177" s="80" t="s">
+        <v>480</v>
+      </c>
+      <c r="C177" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E177" s="98">
+        <f t="shared" si="2"/>
+        <v>70470420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B178" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="C178" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E178" s="98">
+        <f t="shared" si="2"/>
+        <v>75470420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C179" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E179" s="98">
+        <f t="shared" si="2"/>
+        <v>77970420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B180" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="C180" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E180" s="98">
+        <f t="shared" si="2"/>
+        <v>80470420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B181" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="C181" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E181" s="98">
+        <f t="shared" si="2"/>
+        <v>82970420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B182" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="D182" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="E182" s="98">
+        <f t="shared" si="2"/>
+        <v>72970420</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B183" s="80" t="s">
+        <v>485</v>
+      </c>
+      <c r="D183" s="40">
+        <v>30000000</v>
+      </c>
+      <c r="E183" s="98">
+        <f t="shared" si="2"/>
+        <v>42970420</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B184" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C184" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E184" s="98">
+        <f t="shared" si="2"/>
+        <v>45470420</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B185" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="D185" s="40">
+        <v>1870000</v>
+      </c>
+      <c r="E185" s="98">
+        <f t="shared" si="2"/>
+        <v>43600420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B186" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" s="40">
+        <v>762000</v>
+      </c>
+      <c r="E186" s="98">
+        <f t="shared" si="2"/>
+        <v>42838420</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B187" s="80" t="s">
+        <v>491</v>
+      </c>
+      <c r="D187" s="40">
+        <v>3170000</v>
+      </c>
+      <c r="E187" s="98">
+        <f t="shared" si="2"/>
+        <v>39668420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B188" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C188" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E188" s="98">
+        <f t="shared" si="2"/>
+        <v>42168420</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B189" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="C189" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E189" s="98">
+        <f t="shared" si="2"/>
+        <v>44668420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B190" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D190" s="40">
+        <v>7509000</v>
+      </c>
+      <c r="E190" s="98">
+        <f t="shared" si="2"/>
+        <v>37159420</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B191" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="C191" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E191" s="98">
+        <f t="shared" si="2"/>
+        <v>39659420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="C192" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E192" s="98">
+        <f t="shared" si="2"/>
+        <v>42159420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
@@ -7191,7 +10231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -7328,7 +10368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -7519,2941 +10559,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H187"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.25" style="80" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
-    </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="58">
-        <v>16115000</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="61">
-        <f>C3-D3</f>
-        <v>16115000</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="56">
-        <v>492063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="40">
-        <v>3000000</v>
-      </c>
-      <c r="E4" s="62">
-        <f>C4-D4+E3</f>
-        <v>19115000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="63">
-        <f t="shared" ref="E5:E69" si="0">C5-D5+E4</f>
-        <v>20615000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E6" s="62">
-        <f t="shared" si="0"/>
-        <v>22115000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="63">
-        <f t="shared" si="0"/>
-        <v>23615000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="40">
-        <v>1500300</v>
-      </c>
-      <c r="E8" s="62">
-        <f t="shared" si="0"/>
-        <v>22114700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55">
-        <v>3212000</v>
-      </c>
-      <c r="E9" s="63">
-        <f t="shared" si="0"/>
-        <v>18902700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E10" s="62">
-        <f>C10-D10+E9</f>
-        <v>20402700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55">
-        <v>5006000</v>
-      </c>
-      <c r="E11" s="63">
-        <f t="shared" si="0"/>
-        <v>15396700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="40">
-        <v>2706000</v>
-      </c>
-      <c r="E12" s="62">
-        <f t="shared" si="0"/>
-        <v>12690700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="63">
-        <f t="shared" si="0"/>
-        <v>14190700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E14" s="62">
-        <f t="shared" si="0"/>
-        <v>15690700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
-        <v>6506000</v>
-      </c>
-      <c r="E15" s="63">
-        <f t="shared" si="0"/>
-        <v>9184700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="40">
-        <v>3006000</v>
-      </c>
-      <c r="E16" s="62">
-        <f t="shared" si="0"/>
-        <v>6178700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="55">
-        <v>1700000</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="63">
-        <f t="shared" si="0"/>
-        <v>7878700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="40">
-        <v>1700000</v>
-      </c>
-      <c r="E18" s="62">
-        <f t="shared" si="0"/>
-        <v>9578700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="55">
-        <v>1700000</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="63">
-        <f t="shared" si="0"/>
-        <v>11278700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="40">
-        <v>1700000</v>
-      </c>
-      <c r="E20" s="62">
-        <f t="shared" si="0"/>
-        <v>12978700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="55">
-        <v>1700000</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="63">
-        <f t="shared" si="0"/>
-        <v>14678700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1700000</v>
-      </c>
-      <c r="E22" s="62">
-        <f t="shared" si="0"/>
-        <v>16378700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="55">
-        <v>1700000</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="63">
-        <f t="shared" si="0"/>
-        <v>18078700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="40">
-        <v>1700000</v>
-      </c>
-      <c r="E24" s="62">
-        <f t="shared" si="0"/>
-        <v>19778700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55">
-        <v>1006000</v>
-      </c>
-      <c r="E25" s="63">
-        <f t="shared" si="0"/>
-        <v>18772700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="40">
-        <v>2439000</v>
-      </c>
-      <c r="E26" s="62">
-        <f t="shared" si="0"/>
-        <v>16333700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55">
-        <v>1393000</v>
-      </c>
-      <c r="E27" s="63">
-        <f t="shared" si="0"/>
-        <v>14940700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="40">
-        <v>3700000</v>
-      </c>
-      <c r="E28" s="62">
-        <f t="shared" si="0"/>
-        <v>18640700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="63">
-        <f t="shared" si="0"/>
-        <v>20140700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E30" s="62">
-        <f t="shared" si="0"/>
-        <v>21640700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="63">
-        <f t="shared" si="0"/>
-        <v>23140700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E32" s="62">
-        <f t="shared" si="0"/>
-        <v>25640700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="63">
-        <f t="shared" si="0"/>
-        <v>27140700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E34" s="62">
-        <f t="shared" si="0"/>
-        <v>28640700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="82">
-        <f t="shared" si="0"/>
-        <v>30140700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="40">
-        <v>1806000</v>
-      </c>
-      <c r="E36" s="62">
-        <f t="shared" si="0"/>
-        <v>28334700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="55">
-        <v>4000000</v>
-      </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="82">
-        <f t="shared" si="0"/>
-        <v>32334700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="40">
-        <v>1206000</v>
-      </c>
-      <c r="E38" s="85">
-        <f t="shared" si="0"/>
-        <v>31128700</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55">
-        <v>2456000</v>
-      </c>
-      <c r="E39" s="82">
-        <f t="shared" si="0"/>
-        <v>28672700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E40" s="85">
-        <f t="shared" si="0"/>
-        <v>31172700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="55">
-        <v>2500000</v>
-      </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82">
-        <f t="shared" si="0"/>
-        <v>33672700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E42" s="85">
-        <f t="shared" si="0"/>
-        <v>36172700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="55">
-        <v>2500000</v>
-      </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="82">
-        <f t="shared" si="0"/>
-        <v>38672700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E44" s="85">
-        <f t="shared" si="0"/>
-        <v>41172700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="55">
-        <v>2500000</v>
-      </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="82">
-        <f t="shared" si="0"/>
-        <v>43672700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="40">
-        <v>4152000</v>
-      </c>
-      <c r="E46" s="85">
-        <f t="shared" si="0"/>
-        <v>39520700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55">
-        <v>1506000</v>
-      </c>
-      <c r="E47" s="82">
-        <f t="shared" si="0"/>
-        <v>38014700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="40">
-        <v>2506000</v>
-      </c>
-      <c r="E48" s="85">
-        <f t="shared" si="0"/>
-        <v>35508700</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81">
-        <v>3356000</v>
-      </c>
-      <c r="E49" s="82">
-        <f t="shared" si="0"/>
-        <v>32152700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="40">
-        <v>1751000</v>
-      </c>
-      <c r="E50" s="85">
-        <f t="shared" si="0"/>
-        <v>30401700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81">
-        <v>510300</v>
-      </c>
-      <c r="E51" s="82">
-        <f t="shared" si="0"/>
-        <v>29891400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E52" s="85">
-        <f t="shared" si="0"/>
-        <v>32391400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82">
-        <f t="shared" si="0"/>
-        <v>34891400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E54" s="85">
-        <f t="shared" si="0"/>
-        <v>37391400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82">
-        <f t="shared" si="0"/>
-        <v>39891400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="85">
-        <f t="shared" si="0"/>
-        <v>42391400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="81">
-        <v>17000000</v>
-      </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82">
-        <f t="shared" si="0"/>
-        <v>59391400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="51">
-        <v>17000000</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="85">
-        <f t="shared" si="0"/>
-        <v>76391400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="81">
-        <v>17000000</v>
-      </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82">
-        <f t="shared" si="0"/>
-        <v>93391400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="51">
-        <v>19500000</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="85">
-        <f t="shared" si="0"/>
-        <v>112891400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="B61" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="81">
-        <v>17000000</v>
-      </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82">
-        <f t="shared" si="0"/>
-        <v>129891400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="51">
-        <v>20000000</v>
-      </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="85">
-        <f t="shared" si="0"/>
-        <v>149891400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="81">
-        <v>19500000</v>
-      </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82">
-        <f t="shared" si="0"/>
-        <v>169391400</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="51">
-        <v>17000000</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="85">
-        <f t="shared" si="0"/>
-        <v>186391400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="81">
-        <v>4500000</v>
-      </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82">
-        <f t="shared" si="0"/>
-        <v>190891400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="51">
-        <v>5000000</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="85">
-        <f t="shared" si="0"/>
-        <v>195891400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="81">
-        <v>17000000</v>
-      </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82">
-        <f t="shared" si="0"/>
-        <v>212891400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51">
-        <v>50015600</v>
-      </c>
-      <c r="E68" s="85">
-        <f t="shared" si="0"/>
-        <v>162875800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81">
-        <v>407000</v>
-      </c>
-      <c r="E69" s="82">
-        <f t="shared" si="0"/>
-        <v>162468800</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B70" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51">
-        <v>4513000</v>
-      </c>
-      <c r="E70" s="85">
-        <f t="shared" ref="E70:E134" si="1">C70-D70+E69</f>
-        <v>157955800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="B71" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81">
-        <v>1206000</v>
-      </c>
-      <c r="E71" s="82">
-        <f t="shared" si="1"/>
-        <v>156749800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B72" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="51">
-        <v>17000000</v>
-      </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="85">
-        <f t="shared" si="1"/>
-        <v>173749800</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81">
-        <v>5206000</v>
-      </c>
-      <c r="E73" s="82">
-        <f t="shared" si="1"/>
-        <v>168543800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="C74" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="85">
-        <f t="shared" si="1"/>
-        <v>171043800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="B75" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D75" s="81"/>
-      <c r="E75" s="82">
-        <f t="shared" si="1"/>
-        <v>173543800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B76" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="51">
-        <v>2000000</v>
-      </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="85">
-        <f t="shared" si="1"/>
-        <v>175543800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81">
-        <v>2500300</v>
-      </c>
-      <c r="E77" s="82">
-        <f t="shared" si="1"/>
-        <v>173043500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="88" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="90">
-        <v>2500000</v>
-      </c>
-      <c r="D78" s="90"/>
-      <c r="E78" s="91">
-        <f t="shared" si="1"/>
-        <v>175543500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D79" s="81"/>
-      <c r="E79" s="82">
-        <f t="shared" si="1"/>
-        <v>178043500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B80" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51">
-        <v>7000</v>
-      </c>
-      <c r="E80" s="85">
-        <f>C80-D80+E79</f>
-        <v>178036500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81">
-        <v>100000</v>
-      </c>
-      <c r="E81" s="82">
-        <f t="shared" si="1"/>
-        <v>177936500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="B82" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51">
-        <v>100000</v>
-      </c>
-      <c r="E82" s="85">
-        <f t="shared" si="1"/>
-        <v>177836500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="B83" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81">
-        <v>3353000</v>
-      </c>
-      <c r="E83" s="82">
-        <f t="shared" si="1"/>
-        <v>174483500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B84" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51">
-        <v>500300</v>
-      </c>
-      <c r="E84" s="85">
-        <f t="shared" si="1"/>
-        <v>173983200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81">
-        <v>100027600</v>
-      </c>
-      <c r="E85" s="82">
-        <f t="shared" si="1"/>
-        <v>73955600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B86" s="86" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="85">
-        <f t="shared" si="1"/>
-        <v>76455600</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="B87" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="81">
-        <v>1000000</v>
-      </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="82">
-        <f t="shared" si="1"/>
-        <v>77455600</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="B88" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51">
-        <v>30010800</v>
-      </c>
-      <c r="E88" s="85">
-        <f t="shared" si="1"/>
-        <v>47444800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="B89" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81">
-        <v>1206000</v>
-      </c>
-      <c r="E89" s="82">
-        <f t="shared" si="1"/>
-        <v>46238800</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="B90" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="85">
-        <f t="shared" si="1"/>
-        <v>48738800</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="B91" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="82">
-        <f t="shared" si="1"/>
-        <v>51238800</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B92" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51">
-        <v>15008400</v>
-      </c>
-      <c r="E92" s="85">
-        <f t="shared" si="1"/>
-        <v>36230400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="C93" s="81"/>
-      <c r="D93" s="81">
-        <v>2870300</v>
-      </c>
-      <c r="E93" s="82">
-        <f t="shared" si="1"/>
-        <v>33360100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B94" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="C94" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E94" s="85">
-        <f t="shared" si="1"/>
-        <v>35860100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="B95" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81">
-        <v>2106000</v>
-      </c>
-      <c r="E95" s="82">
-        <f t="shared" si="1"/>
-        <v>33754100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B96" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E96" s="85">
-        <f t="shared" si="1"/>
-        <v>36254100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="B97" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="C97" s="81">
-        <v>5000000</v>
-      </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="82">
-        <f t="shared" si="1"/>
-        <v>41254100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B98" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="C98" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E98" s="85">
-        <f t="shared" si="1"/>
-        <v>43754100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="B99" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="81">
-        <v>740000</v>
-      </c>
-      <c r="D99" s="81"/>
-      <c r="E99" s="82">
-        <f t="shared" si="1"/>
-        <v>44494100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B100" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="C100" s="40">
-        <v>10000000</v>
-      </c>
-      <c r="E100" s="85">
-        <f t="shared" si="1"/>
-        <v>54494100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="B101" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81">
-        <v>672000</v>
-      </c>
-      <c r="E101" s="82">
-        <f t="shared" si="1"/>
-        <v>53822100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B102" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="C102" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E102" s="85">
-        <f t="shared" si="1"/>
-        <v>56322100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="B103" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81">
-        <v>1200300</v>
-      </c>
-      <c r="E103" s="82">
-        <f t="shared" si="1"/>
-        <v>55121800</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B104" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="C104" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="E104" s="85">
-        <f t="shared" si="1"/>
-        <v>60121800</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="B105" s="83" t="s">
-        <v>326</v>
-      </c>
-      <c r="C105" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D105" s="81"/>
-      <c r="E105" s="82">
-        <f t="shared" si="1"/>
-        <v>62621800</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B106" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="C106" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E106" s="85">
-        <f t="shared" si="1"/>
-        <v>65121800</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="83" t="s">
-        <v>339</v>
-      </c>
-      <c r="C107" s="81">
-        <v>1000000</v>
-      </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="82">
-        <f t="shared" si="1"/>
-        <v>66121800</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="C108" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E108" s="85">
-        <f t="shared" si="1"/>
-        <v>68621800</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="B109" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81">
-        <v>9154000</v>
-      </c>
-      <c r="E109" s="82">
-        <f t="shared" si="1"/>
-        <v>59467800</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B110" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="C110" s="40">
-        <v>1584600</v>
-      </c>
-      <c r="E110" s="85">
-        <f t="shared" si="1"/>
-        <v>61052400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="81">
-        <v>5000000</v>
-      </c>
-      <c r="D111" s="81"/>
-      <c r="E111" s="82">
-        <f t="shared" si="1"/>
-        <v>66052400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="D112" s="40">
-        <v>2170300</v>
-      </c>
-      <c r="E112" s="85">
-        <f t="shared" si="1"/>
-        <v>63882100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="B113" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81">
-        <v>1206000</v>
-      </c>
-      <c r="E113" s="82">
-        <f t="shared" si="1"/>
-        <v>62676100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B114" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="C114" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E114" s="85">
-        <f t="shared" si="1"/>
-        <v>65176100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="B115" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D115" s="81"/>
-      <c r="E115" s="82">
-        <f t="shared" si="1"/>
-        <v>67676100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B116" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="C116" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="E116" s="85">
-        <f t="shared" si="1"/>
-        <v>72676100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="B117" s="83" t="s">
-        <v>358</v>
-      </c>
-      <c r="C117" s="81">
-        <v>3150000</v>
-      </c>
-      <c r="D117" s="81"/>
-      <c r="E117" s="82">
-        <f t="shared" si="1"/>
-        <v>75826100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B118" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E118" s="85">
-        <f t="shared" si="1"/>
-        <v>78326100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="84" t="s">
-        <v>354</v>
-      </c>
-      <c r="B119" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="C119" s="81"/>
-      <c r="D119" s="81">
-        <v>650360</v>
-      </c>
-      <c r="E119" s="82">
-        <f t="shared" si="1"/>
-        <v>77675740</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>359</v>
-      </c>
-      <c r="C120" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E120" s="85">
-        <f t="shared" si="1"/>
-        <v>80175740</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="B121" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81">
-        <v>1210000</v>
-      </c>
-      <c r="E121" s="82">
-        <f t="shared" si="1"/>
-        <v>78965740</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B122" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="D122" s="40">
-        <v>8847000</v>
-      </c>
-      <c r="E122" s="85">
-        <f t="shared" si="1"/>
-        <v>70118740</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="B123" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C123" s="81">
-        <v>1620000</v>
-      </c>
-      <c r="D123" s="81"/>
-      <c r="E123" s="82">
-        <f t="shared" si="1"/>
-        <v>71738740</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B124" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" s="40">
-        <v>457200</v>
-      </c>
-      <c r="E124" s="85">
-        <f t="shared" si="1"/>
-        <v>71281540</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="84" t="s">
-        <v>382</v>
-      </c>
-      <c r="B125" s="83" t="s">
-        <v>384</v>
-      </c>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81">
-        <v>3000360</v>
-      </c>
-      <c r="E125" s="82">
-        <f t="shared" si="1"/>
-        <v>68281180</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B126" s="80" t="s">
-        <v>383</v>
-      </c>
-      <c r="D126" s="40">
-        <v>1450360</v>
-      </c>
-      <c r="E126" s="85">
-        <f t="shared" si="1"/>
-        <v>66830820</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="84" t="s">
-        <v>377</v>
-      </c>
-      <c r="B127" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="C127" s="81"/>
-      <c r="D127" s="81">
-        <v>5007200</v>
-      </c>
-      <c r="E127" s="82">
-        <f t="shared" si="1"/>
-        <v>61823620</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B128" s="80" t="s">
-        <v>391</v>
-      </c>
-      <c r="D128" s="40">
-        <v>1207200</v>
-      </c>
-      <c r="E128" s="85">
-        <f t="shared" si="1"/>
-        <v>60616420</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="B129" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="C129" s="81">
-        <v>5000000</v>
-      </c>
-      <c r="D129" s="81"/>
-      <c r="E129" s="82">
-        <f t="shared" si="1"/>
-        <v>65616420</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B130" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="C130" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E130" s="85">
-        <f t="shared" si="1"/>
-        <v>68116420</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="B131" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="C131" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D131" s="81"/>
-      <c r="E131" s="82">
-        <f t="shared" si="1"/>
-        <v>70616420</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B132" s="80" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E132" s="85">
-        <f t="shared" si="1"/>
-        <v>73116420</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="B133" s="83" t="s">
-        <v>400</v>
-      </c>
-      <c r="C133" s="81">
-        <v>2500000</v>
-      </c>
-      <c r="D133" s="81"/>
-      <c r="E133" s="82">
-        <f>C133-D133+E132</f>
-        <v>75616420</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="95" t="s">
-        <v>401</v>
-      </c>
-      <c r="B134" s="96" t="s">
-        <v>402</v>
-      </c>
-      <c r="C134" s="97">
-        <v>1500000</v>
-      </c>
-      <c r="D134" s="97"/>
-      <c r="E134" s="98">
-        <f t="shared" si="1"/>
-        <v>77116420</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="B135" s="105" t="s">
-        <v>403</v>
-      </c>
-      <c r="C135" s="106"/>
-      <c r="D135" s="106">
-        <v>1600000</v>
-      </c>
-      <c r="E135" s="102">
-        <f t="shared" ref="E135:E187" si="2">C135-D135+E134</f>
-        <v>75516420</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="99" t="s">
-        <v>401</v>
-      </c>
-      <c r="B136" s="100" t="s">
-        <v>404</v>
-      </c>
-      <c r="C136" s="101">
-        <v>2500000</v>
-      </c>
-      <c r="D136" s="101"/>
-      <c r="E136" s="103">
-        <f t="shared" si="2"/>
-        <v>78016420</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="104" t="s">
-        <v>405</v>
-      </c>
-      <c r="B137" s="105" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" s="106"/>
-      <c r="D137" s="106">
-        <v>3000000</v>
-      </c>
-      <c r="E137" s="102">
-        <f t="shared" si="2"/>
-        <v>75016420</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="B138" s="96" t="s">
-        <v>408</v>
-      </c>
-      <c r="C138" s="97">
-        <v>7500000</v>
-      </c>
-      <c r="D138" s="97"/>
-      <c r="E138" s="98">
-        <f t="shared" si="2"/>
-        <v>82516420</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="B139" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51">
-        <v>1200000</v>
-      </c>
-      <c r="E139" s="98">
-        <f t="shared" si="2"/>
-        <v>81316420</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="B140" s="86" t="s">
-        <v>414</v>
-      </c>
-      <c r="C140" s="51">
-        <v>5000000</v>
-      </c>
-      <c r="D140" s="51"/>
-      <c r="E140" s="98">
-        <f t="shared" si="2"/>
-        <v>86316420</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="50" t="s">
-        <v>416</v>
-      </c>
-      <c r="B141" s="86" t="s">
-        <v>417</v>
-      </c>
-      <c r="C141" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D141" s="51"/>
-      <c r="E141" s="98">
-        <f t="shared" si="2"/>
-        <v>88816420</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="B142" s="86" t="s">
-        <v>418</v>
-      </c>
-      <c r="C142" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D142" s="51"/>
-      <c r="E142" s="98">
-        <f t="shared" si="2"/>
-        <v>91316420</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="B143" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51">
-        <v>4779000</v>
-      </c>
-      <c r="E143" s="98">
-        <f t="shared" si="2"/>
-        <v>86537420</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="B144" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51">
-        <v>1262000</v>
-      </c>
-      <c r="E144" s="98">
-        <f t="shared" si="2"/>
-        <v>85275420</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="B145" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="C145" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D145" s="51"/>
-      <c r="E145" s="98">
-        <f t="shared" si="2"/>
-        <v>87775420</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="B146" s="86" t="s">
-        <v>423</v>
-      </c>
-      <c r="C146" s="51">
-        <v>2500000</v>
-      </c>
-      <c r="D146" s="51"/>
-      <c r="E146" s="98">
-        <f t="shared" si="2"/>
-        <v>90275420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="B147" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51">
-        <v>4000000</v>
-      </c>
-      <c r="E147" s="98">
-        <f t="shared" si="2"/>
-        <v>86275420</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B148" s="80" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="40">
-        <v>170000</v>
-      </c>
-      <c r="E148" s="98">
-        <f t="shared" si="2"/>
-        <v>86105420</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B149" s="80" t="s">
-        <v>429</v>
-      </c>
-      <c r="C149" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E149" s="98">
-        <f t="shared" si="2"/>
-        <v>88605420</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B150" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="C150" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E150" s="98">
-        <f t="shared" si="2"/>
-        <v>91105420</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B151" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="D151" s="40">
-        <v>3000000</v>
-      </c>
-      <c r="E151" s="98">
-        <f t="shared" si="2"/>
-        <v>88105420</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B152" s="80" t="s">
-        <v>436</v>
-      </c>
-      <c r="D152" s="40">
-        <v>7950000</v>
-      </c>
-      <c r="E152" s="98">
-        <f t="shared" si="2"/>
-        <v>80155420</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B153" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="D153" s="40">
-        <v>43000000</v>
-      </c>
-      <c r="E153" s="98">
-        <f t="shared" si="2"/>
-        <v>37155420</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B154" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="D154" s="51">
-        <v>1200000</v>
-      </c>
-      <c r="E154" s="98">
-        <f t="shared" si="2"/>
-        <v>35955420</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B155" s="80" t="s">
-        <v>440</v>
-      </c>
-      <c r="C155" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E155" s="98">
-        <f t="shared" si="2"/>
-        <v>38455420</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B156" s="80" t="s">
-        <v>442</v>
-      </c>
-      <c r="C156" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E156" s="98">
-        <f t="shared" si="2"/>
-        <v>40955420</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B157" s="80" t="s">
-        <v>443</v>
-      </c>
-      <c r="C157" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E157" s="98">
-        <f t="shared" si="2"/>
-        <v>43455420</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B158" s="80" t="s">
-        <v>444</v>
-      </c>
-      <c r="C158" s="40">
-        <v>7500000</v>
-      </c>
-      <c r="E158" s="98">
-        <f t="shared" si="2"/>
-        <v>50955420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B159" s="80" t="s">
-        <v>445</v>
-      </c>
-      <c r="C159" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E159" s="98">
-        <f t="shared" si="2"/>
-        <v>53455420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B160" s="80" t="s">
-        <v>450</v>
-      </c>
-      <c r="C160" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E160" s="98">
-        <f t="shared" si="2"/>
-        <v>55955420</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B161" s="80" t="s">
-        <v>452</v>
-      </c>
-      <c r="C161" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E161" s="98">
-        <f t="shared" si="2"/>
-        <v>58455420</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B162" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="C162" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E162" s="98">
-        <f t="shared" si="2"/>
-        <v>60955420</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B163" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="D163" s="40">
-        <v>3000000</v>
-      </c>
-      <c r="E163" s="98">
-        <f t="shared" si="2"/>
-        <v>57955420</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B164" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="D164" s="40">
-        <v>1900000</v>
-      </c>
-      <c r="E164" s="98">
-        <f t="shared" si="2"/>
-        <v>56055420</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B165" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="C165" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E165" s="98">
-        <f t="shared" si="2"/>
-        <v>58555420</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B166" s="80" t="s">
-        <v>462</v>
-      </c>
-      <c r="C166" s="40">
-        <v>7500000</v>
-      </c>
-      <c r="E166" s="98">
-        <f t="shared" si="2"/>
-        <v>66055420</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B167" s="80" t="s">
-        <v>463</v>
-      </c>
-      <c r="C167" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E167" s="98">
-        <f t="shared" si="2"/>
-        <v>68555420</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B168" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D168" s="40">
-        <v>10319000</v>
-      </c>
-      <c r="E168" s="98">
-        <f t="shared" si="2"/>
-        <v>58236420</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B169" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D169" s="40">
-        <v>1066000</v>
-      </c>
-      <c r="E169" s="98">
-        <f t="shared" si="2"/>
-        <v>57170420</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B170" s="80" t="s">
-        <v>465</v>
-      </c>
-      <c r="C170" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E170" s="98">
-        <f t="shared" si="2"/>
-        <v>59670420</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B171" s="80" t="s">
-        <v>467</v>
-      </c>
-      <c r="C171" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="E171" s="98">
-        <f t="shared" si="2"/>
-        <v>64670420</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B172" s="80" t="s">
-        <v>473</v>
-      </c>
-      <c r="C172" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E172" s="98">
-        <f t="shared" si="2"/>
-        <v>67170420</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B173" s="80" t="s">
-        <v>471</v>
-      </c>
-      <c r="C173" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E173" s="98">
-        <f t="shared" si="2"/>
-        <v>69670420</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B174" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="C174" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E174" s="98">
-        <f t="shared" si="2"/>
-        <v>72170420</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B175" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="D175" s="40">
-        <v>1200000</v>
-      </c>
-      <c r="E175" s="98">
-        <f t="shared" si="2"/>
-        <v>70970420</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B176" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="D176" s="40">
-        <v>3000000</v>
-      </c>
-      <c r="E176" s="98">
-        <f t="shared" si="2"/>
-        <v>67970420</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B177" s="80" t="s">
-        <v>480</v>
-      </c>
-      <c r="C177" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E177" s="98">
-        <f t="shared" si="2"/>
-        <v>70470420</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B178" s="80" t="s">
-        <v>481</v>
-      </c>
-      <c r="C178" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="E178" s="98">
-        <f t="shared" si="2"/>
-        <v>75470420</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B179" s="80" t="s">
-        <v>429</v>
-      </c>
-      <c r="C179" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E179" s="98">
-        <f t="shared" si="2"/>
-        <v>77970420</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B180" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="C180" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E180" s="98">
-        <f t="shared" si="2"/>
-        <v>80470420</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B181" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="C181" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E181" s="98">
-        <f t="shared" si="2"/>
-        <v>82970420</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B182" s="80" t="s">
-        <v>483</v>
-      </c>
-      <c r="D182" s="40">
-        <v>10000000</v>
-      </c>
-      <c r="E182" s="98">
-        <f t="shared" si="2"/>
-        <v>72970420</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B183" s="80" t="s">
-        <v>485</v>
-      </c>
-      <c r="D183" s="40">
-        <v>30000000</v>
-      </c>
-      <c r="E183" s="98">
-        <f t="shared" si="2"/>
-        <v>42970420</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B184" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="C184" s="40">
-        <v>2500000</v>
-      </c>
-      <c r="E184" s="98">
-        <f t="shared" si="2"/>
-        <v>45470420</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B185" s="80" t="s">
-        <v>488</v>
-      </c>
-      <c r="D185" s="40">
-        <v>1870000</v>
-      </c>
-      <c r="E185" s="98">
-        <f t="shared" si="2"/>
-        <v>43600420</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B186" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D186" s="40">
-        <v>762000</v>
-      </c>
-      <c r="E186" s="98">
-        <f t="shared" si="2"/>
-        <v>42838420</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B187" s="80" t="s">
-        <v>491</v>
-      </c>
-      <c r="D187" s="40">
-        <v>3170000</v>
-      </c>
-      <c r="E187" s="98">
-        <f t="shared" si="2"/>
-        <v>39668420</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="500">
   <si>
     <t>واحد</t>
   </si>
@@ -1537,6 +1537,21 @@
   </si>
   <si>
     <t>واریز شارژ رویایی</t>
+  </si>
+  <si>
+    <t>1402/10/15</t>
+  </si>
+  <si>
+    <t>1402/10/17</t>
+  </si>
+  <si>
+    <t>واریز شارژ سلیمی</t>
+  </si>
+  <si>
+    <t>1402/10/10</t>
+  </si>
+  <si>
+    <t>واریز شارژ نویدیان</t>
   </si>
 </sst>
 </file>
@@ -2899,6 +2914,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2917,15 +2941,6 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2935,105 +2950,120 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -3044,21 +3074,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4797,7 +4812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4812,16 +4827,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4850,377 +4865,424 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="165" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="173">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="175" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="168" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="169">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="172" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="168">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="169">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="172" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="173">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="167" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="168" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="169">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="162" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="171" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="172" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="173">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="168" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="169">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="172" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="173">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="168" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
@@ -5237,62 +5299,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5316,16 +5331,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5354,336 +5369,385 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5700,63 +5764,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5767,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5777,16 +5792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5815,316 +5830,375 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="163" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="181"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="167" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="F5" s="167" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="162" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="171" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="154"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="154"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="162" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="E11" s="171" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="167" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="154"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="166"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="154"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="165"/>
-      <c r="H19" s="166"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="E21" s="167" t="s">
+        <v>498</v>
+      </c>
+      <c r="F21" s="167" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -6141,63 +6215,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7010,10 +7035,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7030,13 +7055,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
@@ -9140,7 +9165,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E192" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E195" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10007,8 +10032,53 @@
         <v>2500000</v>
       </c>
       <c r="E192" s="98">
-        <f t="shared" si="2"/>
+        <f>C192-D192+E191</f>
         <v>42159420</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B193" s="80" t="s">
+        <v>499</v>
+      </c>
+      <c r="C193" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E193" s="98">
+        <f t="shared" ref="E193:E195" si="3">C193-D193+E192</f>
+        <v>47159420</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B194" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="C194" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E194" s="98">
+        <f t="shared" si="3"/>
+        <v>49659420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B195" s="80" t="s">
+        <v>497</v>
+      </c>
+      <c r="C195" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E195" s="98">
+        <f t="shared" si="3"/>
+        <v>54659420</v>
       </c>
     </row>
   </sheetData>
@@ -10040,16 +10110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
       <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -10248,17 +10318,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
       <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -10385,16 +10455,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="505">
   <si>
     <t>واحد</t>
   </si>
@@ -1552,6 +1552,21 @@
   </si>
   <si>
     <t>واریز شارژ نویدیان</t>
+  </si>
+  <si>
+    <t>1402/10/27</t>
+  </si>
+  <si>
+    <t>خرید کیسه زباله</t>
+  </si>
+  <si>
+    <t>سرویس آسانسور بعلاوه رفع مشکل برجستگی های چاه و صدای اصابت کابین</t>
+  </si>
+  <si>
+    <t>1402/10/28</t>
+  </si>
+  <si>
+    <t>واریز شارژ بهمن ماه امیری</t>
   </si>
 </sst>
 </file>
@@ -2950,6 +2965,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2962,15 +3034,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2980,9 +3046,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -2995,85 +3058,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4812,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4827,16 +4842,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4865,376 +4880,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5251,63 +5315,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5331,16 +5346,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5369,337 +5384,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5716,62 +5778,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5782,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5792,16 +5807,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5830,327 +5845,376 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="163"/>
-      <c r="H3" s="165"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="152" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="171" t="s">
+      <c r="F15" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
+      <c r="G19" s="165" t="s">
+        <v>503</v>
+      </c>
+      <c r="H19" s="166"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="167" t="s">
+      <c r="F21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6167,62 +6231,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7035,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView rightToLeft="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9165,7 +9182,7 @@
         <v>1600000</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" ref="E135:E195" si="2">C135-D135+E134</f>
+        <f t="shared" ref="E135:E191" si="2">C135-D135+E134</f>
         <v>75516420</v>
       </c>
     </row>
@@ -10047,7 +10064,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E195" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E199" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10079,6 +10096,66 @@
       <c r="E195" s="98">
         <f t="shared" si="3"/>
         <v>54659420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B196" s="80" t="s">
+        <v>501</v>
+      </c>
+      <c r="D196" s="40">
+        <v>750000</v>
+      </c>
+      <c r="E196" s="98">
+        <f t="shared" si="3"/>
+        <v>53909420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B197" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D197" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E197" s="98">
+        <f t="shared" si="3"/>
+        <v>50909420</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="D198" s="40">
+        <v>9000000</v>
+      </c>
+      <c r="E198" s="98">
+        <f t="shared" si="3"/>
+        <v>41909420</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B199" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="C199" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E199" s="98">
+        <f t="shared" si="3"/>
+        <v>44409420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="515">
   <si>
     <t>واحد</t>
   </si>
@@ -1567,6 +1567,36 @@
   </si>
   <si>
     <t>واریز شارژ بهمن ماه امیری</t>
+  </si>
+  <si>
+    <t>1402/10/29</t>
+  </si>
+  <si>
+    <t>واریز شارژ سه ماهه زمستان فولادی</t>
+  </si>
+  <si>
+    <t>1402/11/02</t>
+  </si>
+  <si>
+    <t>واریز شارژ دو ماهه سعیدی</t>
+  </si>
+  <si>
+    <t>واریز شارژ بهمن ماه سعیدی</t>
+  </si>
+  <si>
+    <t>1402/11/05</t>
+  </si>
+  <si>
+    <t>خرید نهال بعلاوه حمل تا ماشین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واریز شارژ بهمن ماه ضرغامی </t>
+  </si>
+  <si>
+    <t>1402/11/06</t>
+  </si>
+  <si>
+    <t>واریز شارژ بهمن ماه سیلانی زاده</t>
   </si>
 </sst>
 </file>
@@ -5798,7 +5828,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5863,7 +5893,9 @@
       <c r="F3" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="179" t="s">
+        <v>510</v>
+      </c>
       <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5924,8 +5956,12 @@
       <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
+      <c r="F7" s="165" t="s">
+        <v>507</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>507</v>
+      </c>
       <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5954,9 +5990,15 @@
       <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="154"/>
+      <c r="F9" s="152" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" s="152" t="s">
+        <v>505</v>
+      </c>
+      <c r="H9" s="152" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="167"/>
@@ -5966,7 +6008,7 @@
       <c r="E10" s="152"/>
       <c r="F10" s="152"/>
       <c r="G10" s="152"/>
-      <c r="H10" s="154"/>
+      <c r="H10" s="152"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="160">
@@ -6019,7 +6061,9 @@
       <c r="F13" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="152"/>
+      <c r="G13" s="152" t="s">
+        <v>507</v>
+      </c>
       <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6051,7 +6095,9 @@
       <c r="F15" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="165"/>
+      <c r="G15" s="165" t="s">
+        <v>513</v>
+      </c>
       <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7052,10 +7098,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView rightToLeft="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10064,7 +10110,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E199" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E205" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10156,6 +10202,96 @@
       <c r="E199" s="98">
         <f t="shared" si="3"/>
         <v>44409420</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B200" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C200" s="40">
+        <v>7500000</v>
+      </c>
+      <c r="E200" s="98">
+        <f t="shared" si="3"/>
+        <v>51909420</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B201" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="C201" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E201" s="98">
+        <f t="shared" si="3"/>
+        <v>56909420</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B202" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="C202" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E202" s="98">
+        <f t="shared" si="3"/>
+        <v>59409420</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B203" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D203" s="40">
+        <v>10800000</v>
+      </c>
+      <c r="E203" s="98">
+        <f t="shared" si="3"/>
+        <v>48609420</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B204" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C204" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E204" s="98">
+        <f t="shared" si="3"/>
+        <v>51109420</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B205" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C205" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E205" s="98">
+        <f t="shared" si="3"/>
+        <v>53609420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="517">
   <si>
     <t>واحد</t>
   </si>
@@ -1597,6 +1597,12 @@
   </si>
   <si>
     <t>واریز شارژ بهمن ماه سیلانی زاده</t>
+  </si>
+  <si>
+    <t>1402/11/08</t>
+  </si>
+  <si>
+    <t>واریز شارژ چهار ماه اخیر نامدار</t>
   </si>
 </sst>
 </file>
@@ -2995,105 +3001,120 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -3104,21 +3125,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4872,16 +4878,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4910,377 +4916,424 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="165" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="173">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="175" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="168" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="169">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="172" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="168">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="169">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="172" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="173">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="167" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="168" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="169">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="162" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="171" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="172" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="173">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="168" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="169">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="172" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="173">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="168" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
@@ -5297,62 +5350,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5376,16 +5382,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5414,336 +5420,385 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5760,63 +5815,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5827,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5837,16 +5843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5875,344 +5881,401 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="163" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="163" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="181"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="167" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="167" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="162" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="171" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="171" t="s">
         <v>507</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="171" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="166"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="167" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="167" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="167" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="162" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="171" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="165" t="s">
+      <c r="F11" s="171" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="167" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="152" t="s">
+      <c r="G13" s="167" t="s">
         <v>507</v>
       </c>
-      <c r="H13" s="154"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="165" t="s">
+      <c r="G15" s="171" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="166"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="154"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="D17" s="167" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" s="167" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="167" t="s">
+        <v>515</v>
+      </c>
+      <c r="G17" s="167" t="s">
+        <v>515</v>
+      </c>
+      <c r="H17" s="168"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="165" t="s">
+      <c r="G19" s="171" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="166"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="167" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="167" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -6229,63 +6292,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7098,10 +7112,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10110,7 +10124,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E205" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E206" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10292,6 +10306,21 @@
       <c r="E205" s="98">
         <f t="shared" si="3"/>
         <v>53609420</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B206" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="C206" s="40">
+        <v>10000000</v>
+      </c>
+      <c r="E206" s="98">
+        <f t="shared" si="3"/>
+        <v>63609420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="520">
   <si>
     <t>واحد</t>
   </si>
@@ -1603,6 +1603,15 @@
   </si>
   <si>
     <t>واریز شارژ چهار ماه اخیر نامدار</t>
+  </si>
+  <si>
+    <t>1402/11/16</t>
+  </si>
+  <si>
+    <t>واریز شارژ بهمن ماه طاعتی</t>
+  </si>
+  <si>
+    <t>1402/11/20</t>
   </si>
 </sst>
 </file>
@@ -3001,6 +3010,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3013,15 +3079,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3031,9 +3091,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3046,85 +3103,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4878,16 +4887,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4916,376 +4925,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5302,63 +5360,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5382,16 +5391,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5420,337 +5429,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5767,62 +5823,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5843,16 +5852,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5881,353 +5890,400 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="163" t="s">
+      <c r="G3" s="179" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="165"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="152" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="171" t="s">
+      <c r="F7" s="165" t="s">
         <v>507</v>
       </c>
-      <c r="G7" s="171" t="s">
+      <c r="G7" s="165" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="172"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167" t="s">
+      <c r="F9" s="152" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="167" t="s">
+      <c r="G9" s="152" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="152" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="152" t="s">
         <v>507</v>
       </c>
-      <c r="H13" s="168"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="171" t="s">
+      <c r="F15" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="171" t="s">
+      <c r="G15" s="165" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="172"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="H17" s="168"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="171" t="s">
+      <c r="G19" s="165" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="172"/>
+      <c r="H19" s="166"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="167" t="s">
+      <c r="F21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6244,62 +6300,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6878,8 +6887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7033,7 +7042,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="39"/>
+      <c r="A15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="40">
+        <v>6765000</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="17" spans="2:2" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
@@ -7112,10 +7129,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView rightToLeft="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10124,7 +10141,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E206" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E208" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10321,6 +10338,36 @@
       <c r="E206" s="98">
         <f t="shared" si="3"/>
         <v>63609420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B207" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C207" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E207" s="98">
+        <f t="shared" si="3"/>
+        <v>66109420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B208" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D208" s="40">
+        <v>6765000</v>
+      </c>
+      <c r="E208" s="98">
+        <f t="shared" si="3"/>
+        <v>59344420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="529">
   <si>
     <t>واحد</t>
   </si>
@@ -1612,6 +1612,33 @@
   </si>
   <si>
     <t>1402/11/20</t>
+  </si>
+  <si>
+    <t>1402/12/06</t>
+  </si>
+  <si>
+    <t>1402/12/11</t>
+  </si>
+  <si>
+    <t>1402/11/28</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفند ماه سعیدی</t>
+  </si>
+  <si>
+    <t>1402/12/03</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفند ماه ضرغامی</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفندماه سیلانی زاده</t>
+  </si>
+  <si>
+    <t>1402/11/22</t>
+  </si>
+  <si>
+    <t>خرید 5 عدد نهال شمشاد</t>
   </si>
 </sst>
 </file>
@@ -3010,105 +3037,120 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -3119,21 +3161,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4872,7 +4899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4887,16 +4914,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4925,377 +4952,424 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="155">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="165" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="173">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="175" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="168" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="169">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="172" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="173">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="168">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="169">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="172" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="173">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="167" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="168" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="169">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="162" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="171" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="171" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="172" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="173">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="167" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="168" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="169">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="172" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="173">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="167" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="168" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
@@ -5312,62 +5386,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5391,16 +5418,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5429,336 +5456,385 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="192" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="173">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="185"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="169">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="173">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="185" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="169">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="188" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="173">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="185" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="188" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="173">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="185" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="185"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="169">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="188" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="173">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="185" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
@@ -5775,63 +5851,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5843,7 +5870,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5852,16 +5879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5890,352 +5917,407 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="155">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="159" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="163" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="163" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="181"/>
+      <c r="H3" s="165" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="166"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="173">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="167" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="167" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="167" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="169">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="162" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="171" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="171" t="s">
         <v>507</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="171" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="166"/>
+      <c r="H7" s="172" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="173">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="167" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="167" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="167" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="169">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="162" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="162" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="171" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="165" t="s">
+      <c r="F11" s="171" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="173">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="175" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="167" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="167" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="152" t="s">
+      <c r="G13" s="167" t="s">
         <v>507</v>
       </c>
-      <c r="H13" s="154"/>
+      <c r="H13" s="168"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="169">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="165" t="s">
+      <c r="G15" s="171" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="166"/>
+      <c r="H15" s="172" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="173">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="167" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="167" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="152" t="s">
+      <c r="E17" s="167" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="167" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="G17" s="167" t="s">
         <v>515</v>
       </c>
-      <c r="H17" s="154"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="169">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="162" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="171" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="165" t="s">
+      <c r="G19" s="171" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="166"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="173">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="167" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="167" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
@@ -6252,63 +6334,14 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6887,7 +6920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -7129,10 +7162,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10141,7 +10174,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E208" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E215" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10366,9 +10399,102 @@
         <v>6765000</v>
       </c>
       <c r="E208" s="98">
-        <f t="shared" si="3"/>
+        <f>C208-D208+E207</f>
         <v>59344420</v>
       </c>
+    </row>
+    <row r="209" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B209" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="D209" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="E209" s="98">
+        <f t="shared" ref="E209:E215" si="4">C209-D209+E208</f>
+        <v>57844420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B210" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C210" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E210" s="98">
+        <f t="shared" si="4"/>
+        <v>60344420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B211" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D211" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E211" s="98">
+        <f t="shared" si="4"/>
+        <v>57344420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B212" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D212" s="40">
+        <v>1200000</v>
+      </c>
+      <c r="E212" s="98">
+        <f t="shared" si="4"/>
+        <v>56144420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B213" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C213" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E213" s="98">
+        <f t="shared" si="4"/>
+        <v>58644420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B214" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C214" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E214" s="98">
+        <f t="shared" si="4"/>
+        <v>61144420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="532">
   <si>
     <t>واحد</t>
   </si>
@@ -1639,6 +1639,15 @@
   </si>
   <si>
     <t>خرید 5 عدد نهال شمشاد</t>
+  </si>
+  <si>
+    <t>خرید سیم مفتول و حلقه و رول پلاک برای پاپیتال توی باغچه</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفند ماه طاعتی</t>
+  </si>
+  <si>
+    <t>1402/12/15</t>
   </si>
 </sst>
 </file>
@@ -5404,7 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5870,7 +5879,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5971,8 +5980,12 @@
       <c r="F5" s="167" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="G5" s="167" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="168" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="174"/>
@@ -7162,10 +7175,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10174,7 +10187,7 @@
         <v>5000000</v>
       </c>
       <c r="E193" s="98">
-        <f t="shared" ref="E193:E215" si="3">C193-D193+E192</f>
+        <f t="shared" ref="E193:E207" si="3">C193-D193+E192</f>
         <v>47159420</v>
       </c>
     </row>
@@ -10414,7 +10427,7 @@
         <v>1500000</v>
       </c>
       <c r="E209" s="98">
-        <f t="shared" ref="E209:E215" si="4">C209-D209+E208</f>
+        <f t="shared" ref="E209:E216" si="4">C209-D209+E208</f>
         <v>57844420</v>
       </c>
     </row>
@@ -10494,7 +10507,34 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E215" s="98"/>
+      <c r="A215" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B215" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="D215" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E215" s="98">
+        <f t="shared" si="4"/>
+        <v>60844420</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B216" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="C216" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E216" s="98">
+        <f t="shared" si="4"/>
+        <v>63344420</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="538">
   <si>
     <t>واحد</t>
   </si>
@@ -1648,6 +1648,24 @@
   </si>
   <si>
     <t>1402/12/15</t>
+  </si>
+  <si>
+    <t>1402/12/21</t>
+  </si>
+  <si>
+    <t>1402/12/18</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفند ماه نیک بخش</t>
+  </si>
+  <si>
+    <t>واریز شارژ اسفند ماه امیری</t>
+  </si>
+  <si>
+    <t>1402/12/25</t>
+  </si>
+  <si>
+    <t>نظافت ساختمان و عیدی به آذریان</t>
   </si>
 </sst>
 </file>
@@ -3046,6 +3064,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3058,15 +3133,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3076,9 +3145,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -3091,85 +3157,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -3493,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4923,16 +4941,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4961,376 +4979,425 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155">
+      <c r="A13" s="174">
         <v>1</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="163" t="s">
+      <c r="F13" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="163" t="s">
+      <c r="G13" s="179" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="181" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="182"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="A15" s="156">
         <v>2</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="152" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="154" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="169">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="166" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173">
+      <c r="A19" s="156">
         <v>4</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="152" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="154">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169">
+      <c r="A21" s="160">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="166" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173">
+      <c r="A23" s="156">
         <v>6</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="152" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="152" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="154" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="168"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="169">
+      <c r="A25" s="160">
         <v>7</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="165" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="166" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173">
+      <c r="A27" s="156">
         <v>8</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="152" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="154" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="169">
+      <c r="A29" s="160">
         <v>9</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="165" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="171" t="s">
+      <c r="F29" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="172" t="s">
+      <c r="H29" s="166" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="173">
+      <c r="A31" s="156">
         <v>10</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="152" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="167" t="s">
+      <c r="F31" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="154" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
@@ -5347,63 +5414,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5427,16 +5445,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5465,337 +5483,384 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="190" t="s">
+      <c r="G4" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="187" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="193"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="173">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="185"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="189"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+      <c r="A8" s="160">
         <v>3</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="187" t="s">
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="189" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="185"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+      <c r="A12" s="160">
         <v>5</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="187" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="188" t="s">
+      <c r="H12" s="191" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="185" t="s">
+      <c r="H14" s="189" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169">
+      <c r="A16" s="160">
         <v>7</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="187" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="191" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183" t="s">
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="183" t="s">
+      <c r="G18" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="189" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="185"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169">
+      <c r="A20" s="160">
         <v>9</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="187" t="s">
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="190" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="188" t="s">
+      <c r="H20" s="191" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="191"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="189" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="193"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:A9"/>
@@ -5812,62 +5877,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5878,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5888,16 +5906,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5926,363 +5944,414 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="178" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="163" t="s">
+      <c r="G3" s="179" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="181" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="166"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="173">
+      <c r="A5" s="156">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="158" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="152" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="152" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="168" t="s">
+      <c r="H5" s="154" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="171" t="s">
+      <c r="F7" s="165" t="s">
         <v>507</v>
       </c>
-      <c r="G7" s="171" t="s">
+      <c r="G7" s="165" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="166" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="A9" s="156">
         <v>4</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="167" t="s">
+      <c r="F9" s="152" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="167" t="s">
+      <c r="G9" s="152" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="152" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>5</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="A13" s="156">
         <v>6</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="158" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="152" t="s">
         <v>507</v>
       </c>
-      <c r="H13" s="168"/>
+      <c r="H13" s="154" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="169">
+      <c r="A15" s="160">
         <v>7</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="171" t="s">
+      <c r="F15" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="171" t="s">
+      <c r="G15" s="165" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="172" t="s">
+      <c r="H15" s="166" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="156">
         <v>8</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="H17" s="168"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="169">
+      <c r="A19" s="160">
         <v>9</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="165" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="171" t="s">
+      <c r="G19" s="165" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="172"/>
+      <c r="H19" s="166" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="173">
+      <c r="A21" s="156">
         <v>10</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="167" t="s">
+      <c r="F21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
@@ -6299,62 +6368,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7175,10 +7197,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A207" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10427,7 +10449,7 @@
         <v>1500000</v>
       </c>
       <c r="E209" s="98">
-        <f t="shared" ref="E209:E216" si="4">C209-D209+E208</f>
+        <f t="shared" ref="E209:E222" si="4">C209-D209+E208</f>
         <v>57844420</v>
       </c>
     </row>
@@ -10534,6 +10556,87 @@
       <c r="E216" s="98">
         <f t="shared" si="4"/>
         <v>63344420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B217" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C217" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E217" s="98">
+        <f t="shared" si="4"/>
+        <v>65844420</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B218" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C218" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E218" s="98">
+        <f t="shared" si="4"/>
+        <v>68344420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B219" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="D219" s="40">
+        <v>4000000</v>
+      </c>
+      <c r="E219" s="98">
+        <f t="shared" si="4"/>
+        <v>64344420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B220" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D220" s="40">
+        <v>8194000</v>
+      </c>
+      <c r="E220" s="98">
+        <f t="shared" si="4"/>
+        <v>56150420</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B221" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D221" s="40">
+        <v>1159000</v>
+      </c>
+      <c r="E221" s="98">
+        <f t="shared" si="4"/>
+        <v>54991420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="98">
+        <f t="shared" si="4"/>
+        <v>54991420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,18 @@
     <sheet name="هزینه‌های برق" sheetId="6" r:id="rId7"/>
     <sheet name="فاضلاب" sheetId="10" r:id="rId8"/>
     <sheet name="متفرقه" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId10"/>
-    <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId11"/>
-    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId12"/>
-    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId13"/>
-    <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId14"/>
+    <sheet name="مبالغ دریافتی" sheetId="12" r:id="rId10"/>
+    <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId11"/>
+    <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId12"/>
+    <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="568">
   <si>
     <t>واحد</t>
   </si>
@@ -1666,6 +1666,96 @@
   </si>
   <si>
     <t>نظافت ساختمان و عیدی به آذریان</t>
+  </si>
+  <si>
+    <t>1402/12/26</t>
+  </si>
+  <si>
+    <t>1402/12/27</t>
+  </si>
+  <si>
+    <t>1402/12/28</t>
+  </si>
+  <si>
+    <t>1403/01/04</t>
+  </si>
+  <si>
+    <t>1403/01/14</t>
+  </si>
+  <si>
+    <t>1403/01/29</t>
+  </si>
+  <si>
+    <t>1403/02/01</t>
+  </si>
+  <si>
+    <t>1403/02/02</t>
+  </si>
+  <si>
+    <t>سلیمی بهمن اسفند</t>
+  </si>
+  <si>
+    <t>نویدیان بهمن اسفند فروردین</t>
+  </si>
+  <si>
+    <t>دوربین و dvr</t>
+  </si>
+  <si>
+    <t>طاعتی فروردین</t>
+  </si>
+  <si>
+    <t>امیری اردیبهشت</t>
+  </si>
+  <si>
+    <t>ضرغامی و سیلانی فروردین</t>
+  </si>
+  <si>
+    <t>سرویس آسانسور و روغن هیدرولیک</t>
+  </si>
+  <si>
+    <t>امیری فروردین</t>
+  </si>
+  <si>
+    <t>اردیبهشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرداد </t>
+  </si>
+  <si>
+    <t>جدول شارژ ساختمان (شش ماهه اول سال ۱۴۰3)</t>
+  </si>
+  <si>
+    <t>1403/02/07</t>
+  </si>
+  <si>
+    <t>شارژ اردیبهشت خودم و حاج خانم ضرغامی</t>
+  </si>
+  <si>
+    <t>1403/02/09</t>
+  </si>
+  <si>
+    <t>1403/02/15</t>
+  </si>
+  <si>
+    <t>1403/02/10</t>
+  </si>
+  <si>
+    <t>شارژ فروردین و اردیبهشت سلیمی</t>
+  </si>
+  <si>
+    <t>شارژ فروردین و اردیبهشت نیکبخش</t>
+  </si>
+  <si>
+    <t>شارژ اردیبهشت طاعتی</t>
+  </si>
+  <si>
+    <t>پرداخت قبض برق مشاعات</t>
+  </si>
+  <si>
+    <t>1403/02/08</t>
+  </si>
+  <si>
+    <t>پرداخت به نظافتچی و هزینه خرید شیشه پاک کن</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3602,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3831,18 +3921,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
@@ -4922,11 +5000,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5427,7 +5505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -5892,12 +5970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6106,8 +6184,12 @@
       <c r="F11" s="165" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="G11" s="165" t="s">
+        <v>539</v>
+      </c>
+      <c r="H11" s="166" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="161"/>
@@ -6280,8 +6362,12 @@
       <c r="F21" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="G21" s="152" t="s">
+        <v>539</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
@@ -6382,6 +6468,409 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="171" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="174">
+        <v>1</v>
+      </c>
+      <c r="B3" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="176" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="178" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="181"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="161"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="182"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="156">
+        <v>2</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="154"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="154"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="160">
+        <v>3</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="156">
+        <v>4</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="160">
+        <v>5</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="156">
+        <v>6</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="160">
+        <v>7</v>
+      </c>
+      <c r="B15" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="164" t="s">
+        <v>544</v>
+      </c>
+      <c r="D15" s="164" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="156">
+        <v>8</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="154"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="167"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="154"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="160">
+        <v>9</v>
+      </c>
+      <c r="B19" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D19" s="164" t="s">
+        <v>543</v>
+      </c>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="166"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="156">
+        <v>10</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="152" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="157"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="155"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
@@ -7197,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A207" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10449,7 +10938,7 @@
         <v>1500000</v>
       </c>
       <c r="E209" s="98">
-        <f t="shared" ref="E209:E222" si="4">C209-D209+E208</f>
+        <f t="shared" ref="E209:E236" si="4">C209-D209+E208</f>
         <v>57844420</v>
       </c>
     </row>
@@ -10634,9 +11123,219 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B222" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="C222" s="40">
+        <v>2500000</v>
+      </c>
       <c r="E222" s="98">
         <f t="shared" si="4"/>
-        <v>54991420</v>
+        <v>57491420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B223" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C223" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E223" s="98">
+        <f t="shared" si="4"/>
+        <v>62491420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B224" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C224" s="40">
+        <v>7500000</v>
+      </c>
+      <c r="E224" s="98">
+        <f t="shared" si="4"/>
+        <v>69991420</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B225" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D225" s="40">
+        <v>66000000</v>
+      </c>
+      <c r="E225" s="98">
+        <f t="shared" si="4"/>
+        <v>3991420</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B226" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C226" s="40">
+        <v>2500000</v>
+      </c>
+      <c r="E226" s="98">
+        <f t="shared" si="4"/>
+        <v>6491420</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B227" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C227" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E227" s="98">
+        <f t="shared" si="4"/>
+        <v>9491420</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B228" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C228" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E228" s="98">
+        <f t="shared" si="4"/>
+        <v>14491420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B229" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="D229" s="40">
+        <v>2000000</v>
+      </c>
+      <c r="E229" s="98">
+        <f t="shared" si="4"/>
+        <v>12491420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B230" s="80" t="s">
+        <v>558</v>
+      </c>
+      <c r="C230" s="40">
+        <v>6000000</v>
+      </c>
+      <c r="E230" s="98">
+        <f t="shared" si="4"/>
+        <v>18491420</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B231" s="80" t="s">
+        <v>567</v>
+      </c>
+      <c r="D231" s="40">
+        <v>5270000</v>
+      </c>
+      <c r="E231" s="98">
+        <f t="shared" si="4"/>
+        <v>13221420</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B232" s="80" t="s">
+        <v>562</v>
+      </c>
+      <c r="C232" s="40">
+        <v>5500000</v>
+      </c>
+      <c r="E232" s="98">
+        <f t="shared" si="4"/>
+        <v>18721420</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B233" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C233" s="40">
+        <v>5500000</v>
+      </c>
+      <c r="E233" s="98">
+        <f t="shared" si="4"/>
+        <v>24221420</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B234" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="C234" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E234" s="98">
+        <f t="shared" si="4"/>
+        <v>27221420</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B235" s="80" t="s">
+        <v>565</v>
+      </c>
+      <c r="D235" s="40">
+        <v>1449000</v>
+      </c>
+      <c r="E235" s="98">
+        <f t="shared" si="4"/>
+        <v>25772420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="98">
+        <f t="shared" si="4"/>
+        <v>25772420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="جدول شارژ ساختمان نیمه اول ۱۴۰۲" sheetId="17" r:id="rId11"/>
     <sheet name="جدول شارژ ساختمان نیمه دوم ۱۴۰۱" sheetId="16" r:id="rId12"/>
     <sheet name="جدول شارژ ساخمان نیمه دوم 1402" sheetId="18" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="20" r:id="rId14"/>
+    <sheet name="جدول شارژ ساختمان نیمه اول 1403" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="580">
   <si>
     <t>واحد</t>
   </si>
@@ -1756,6 +1756,42 @@
   </si>
   <si>
     <t>پرداخت به نظافتچی و هزینه خرید شیشه پاک کن</t>
+  </si>
+  <si>
+    <t>1403/02/23</t>
+  </si>
+  <si>
+    <t>واریز شارژ 4 ماهه اول سال فولادی</t>
+  </si>
+  <si>
+    <t>واریز شارژ 3 ماهه اول سال سعیدی</t>
+  </si>
+  <si>
+    <t>1403/02/30</t>
+  </si>
+  <si>
+    <t>واریز شارژ خرداد ماه سلیمی</t>
+  </si>
+  <si>
+    <t>واریز شارژ خرداد ماه جهانی</t>
+  </si>
+  <si>
+    <t>1403/02/31</t>
+  </si>
+  <si>
+    <t>هزینه سرویس آسانسور</t>
+  </si>
+  <si>
+    <t>1403/03/03</t>
+  </si>
+  <si>
+    <t>واریز شارژ اردیبهشت و خرداد نویدیان</t>
+  </si>
+  <si>
+    <t>1403/03/04</t>
+  </si>
+  <si>
+    <t>واریز شارژ سیلانی زاده و حاج خانم ضرغامی</t>
   </si>
 </sst>
 </file>
@@ -6472,8 +6508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6572,51 +6608,65 @@
       <c r="G6" s="152"/>
       <c r="H6" s="154"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="160">
         <v>3</v>
       </c>
       <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
+      <c r="C7" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>568</v>
+      </c>
       <c r="F7" s="165"/>
       <c r="G7" s="165"/>
       <c r="H7" s="166"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="161"/>
       <c r="B8" s="163"/>
       <c r="C8" s="164"/>
       <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="165"/>
       <c r="G8" s="165"/>
       <c r="H8" s="166"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="156">
         <v>4</v>
       </c>
       <c r="B9" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
+      <c r="C9" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="164" t="s">
+        <v>568</v>
+      </c>
       <c r="G9" s="152"/>
       <c r="H9" s="152"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="167"/>
       <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="152"/>
       <c r="H10" s="152"/>
     </row>
@@ -6633,7 +6683,9 @@
       <c r="D11" s="164" t="s">
         <v>559</v>
       </c>
-      <c r="E11" s="165"/>
+      <c r="E11" s="165" t="s">
+        <v>571</v>
+      </c>
       <c r="F11" s="165"/>
       <c r="G11" s="165"/>
       <c r="H11" s="166"/>
@@ -6728,7 +6780,7 @@
       <c r="G18" s="152"/>
       <c r="H18" s="154"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="160">
         <v>9</v>
       </c>
@@ -6741,12 +6793,14 @@
       <c r="D19" s="164" t="s">
         <v>543</v>
       </c>
-      <c r="E19" s="165"/>
+      <c r="E19" s="165" t="s">
+        <v>571</v>
+      </c>
       <c r="F19" s="165"/>
       <c r="G19" s="165"/>
       <c r="H19" s="166"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="161"/>
       <c r="B20" s="163"/>
       <c r="C20" s="164"/>
@@ -6756,7 +6810,7 @@
       <c r="G20" s="165"/>
       <c r="H20" s="166"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="156">
         <v>10</v>
       </c>
@@ -6766,13 +6820,17 @@
       <c r="C21" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
+      <c r="D21" s="152" t="s">
+        <v>576</v>
+      </c>
+      <c r="E21" s="152" t="s">
+        <v>576</v>
+      </c>
       <c r="F21" s="152"/>
       <c r="G21" s="152"/>
       <c r="H21" s="154"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
       <c r="B22" s="159"/>
       <c r="C22" s="153"/>
@@ -7686,10 +7744,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10938,7 +10996,7 @@
         <v>1500000</v>
       </c>
       <c r="E209" s="98">
-        <f t="shared" ref="E209:E236" si="4">C209-D209+E208</f>
+        <f t="shared" ref="E209:E244" si="4">C209-D209+E208</f>
         <v>57844420</v>
       </c>
     </row>
@@ -11333,9 +11391,129 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B236" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C236" s="40">
+        <v>11500000</v>
+      </c>
       <c r="E236" s="98">
         <f t="shared" si="4"/>
-        <v>25772420</v>
+        <v>37272420</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B237" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C237" s="40">
+        <v>8500000</v>
+      </c>
+      <c r="E237" s="98">
+        <f t="shared" si="4"/>
+        <v>45772420</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B238" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C238" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E238" s="98">
+        <f t="shared" si="4"/>
+        <v>48772420</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B239" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C239" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E239" s="98">
+        <f t="shared" si="4"/>
+        <v>51772420</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B240" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D240" s="40">
+        <v>23917000</v>
+      </c>
+      <c r="E240" s="98">
+        <f t="shared" si="4"/>
+        <v>27855420</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B241" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="D241" s="40">
+        <v>1800000</v>
+      </c>
+      <c r="E241" s="98">
+        <f t="shared" si="4"/>
+        <v>26055420</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B242" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C242" s="40">
+        <v>6000000</v>
+      </c>
+      <c r="E242" s="98">
+        <f t="shared" si="4"/>
+        <v>32055420</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B243" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="C243" s="40">
+        <v>6000000</v>
+      </c>
+      <c r="E243" s="98">
+        <f t="shared" si="4"/>
+        <v>38055420</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="98">
+        <f t="shared" si="4"/>
+        <v>38055420</v>
       </c>
     </row>
   </sheetData>

--- a/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
+++ b/اطلاعات_و_گزارشات_و_مشروح_دریافت_و_پرداخت_های_ساختمان_هاشمی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="اطلاعات کلی" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="604">
   <si>
     <t>واحد</t>
   </si>
@@ -1792,6 +1792,78 @@
   </si>
   <si>
     <t>واریز شارژ سیلانی زاده و حاج خانم ضرغامی</t>
+  </si>
+  <si>
+    <t>1403/03/08</t>
+  </si>
+  <si>
+    <t>1403/03/10</t>
+  </si>
+  <si>
+    <t>شارژ اسفند، فروردین، اردیبهشت و خرداد نامدار</t>
+  </si>
+  <si>
+    <t>1403/03/11</t>
+  </si>
+  <si>
+    <t>خرید مغزی شیر حیاط و نوار تفلون</t>
+  </si>
+  <si>
+    <t>خرید یه چیزی که الان یادم نیست</t>
+  </si>
+  <si>
+    <t>1403/03/14</t>
+  </si>
+  <si>
+    <t>واریز شارژ خرداد طاعتی</t>
+  </si>
+  <si>
+    <t>1403/03/15</t>
+  </si>
+  <si>
+    <t>واریز به حساب آقای گلستانی بابت خرید سایر تجهیزات و نصب دوربین ها</t>
+  </si>
+  <si>
+    <t>1403/03/16</t>
+  </si>
+  <si>
+    <t>واربز شارژ تیرماه نیک بخش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خرید سه راهی برق - چسب برق - دو شاخه - سیم - سه راهی بون سیم </t>
+  </si>
+  <si>
+    <t>واریز شارژ تیر، مرداد و شهریور سیلانی زاده</t>
+  </si>
+  <si>
+    <t>واریز شارژ خرداد ماه نیکبخش</t>
+  </si>
+  <si>
+    <t>1403/03/18</t>
+  </si>
+  <si>
+    <t>1403/03/25</t>
+  </si>
+  <si>
+    <t>1403/03/30</t>
+  </si>
+  <si>
+    <t>1403/04/14</t>
+  </si>
+  <si>
+    <t>واریز شارژ تیرماه طاعتی</t>
+  </si>
+  <si>
+    <t>واریز شارژ تیر ماه امیری</t>
+  </si>
+  <si>
+    <t>واریز شارژ مرداد ماه امیری</t>
+  </si>
+  <si>
+    <t>1403/04/15</t>
+  </si>
+  <si>
+    <t>واریز شارژ متیرماه ضرغامی</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1936,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2093,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="55">
     <border>
@@ -2735,7 +2813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3064,6 +3142,9 @@
     <xf numFmtId="164" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3315,6 +3396,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3652,13 +3736,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -3835,13 +3919,13 @@
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
@@ -3850,11 +3934,11 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
@@ -3863,29 +3947,29 @@
       <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="127" t="s">
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
     </row>
     <row r="18" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
@@ -3897,10 +3981,10 @@
       <c r="C19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
@@ -3975,11 +4059,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="69" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
@@ -4178,12 +4262,12 @@
       <c r="C19" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="151" t="s">
+      <c r="D19" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="80" t="s">
@@ -4228,12 +4312,12 @@
       <c r="C23" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="151" t="s">
+      <c r="D23" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="80" t="s">
@@ -4245,15 +4329,15 @@
       <c r="C24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="150" t="s">
+      <c r="D24" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
@@ -4342,15 +4426,15 @@
       <c r="C32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="150" t="s">
+      <c r="D32" s="151" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="1:12" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="87" t="s">
@@ -4664,14 +4748,14 @@
       <c r="C56" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
     </row>
     <row r="57" spans="1:11" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
@@ -4683,15 +4767,15 @@
       <c r="C57" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="D57" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="80" t="s">
@@ -5055,16 +5139,16 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="172" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="174"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -5093,364 +5177,364 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="175">
         <v>1</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="177" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="180" t="s">
         <v>366</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="180" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="182" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="183"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156">
+      <c r="A15" s="157">
         <v>2</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="153" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="153" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="153" t="s">
         <v>367</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="153" t="s">
         <v>401</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="155" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="154"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="155"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160">
+      <c r="A17" s="161">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="165" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="D17" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="166" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="166" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H17" s="166" t="s">
+      <c r="H17" s="167" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156">
+      <c r="A19" s="157">
         <v>4</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="169" t="s">
+      <c r="E19" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="153" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="153" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="155">
         <v>1402.0518</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="154"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="155"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160">
+      <c r="A21" s="161">
         <v>5</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="166" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="166" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="167" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="167"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="157">
         <v>6</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="159" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="153" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="153" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="153" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="153" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="155" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="154"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="155"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160">
+      <c r="A25" s="161">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="165" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="166" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="166" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="167" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="167"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156">
+      <c r="A27" s="157">
         <v>8</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="153" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="153" t="s">
         <v>388</v>
       </c>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="153" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="155" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="154"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="155"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160">
+      <c r="A29" s="161">
         <v>9</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="165" t="s">
+      <c r="F29" s="166" t="s">
         <v>351</v>
       </c>
-      <c r="G29" s="165" t="s">
+      <c r="G29" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="167" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="167"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156">
+      <c r="A31" s="157">
         <v>10</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="153" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="153" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="153" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="152" t="s">
+      <c r="F31" s="153" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="152" t="s">
+      <c r="G31" s="153" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="155" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="155"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="156"/>
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -5559,16 +5643,16 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -5597,324 +5681,324 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
+      <c r="A4" s="175">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="186" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="188" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="188"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="189"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="157">
         <v>2</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184" t="s">
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="190" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="189"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="190"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="161">
         <v>3</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="190" t="s">
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="192" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="192"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156">
+      <c r="A10" s="157">
         <v>4</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184" t="s">
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="185" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="190" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="189"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="190"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="161">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="190" t="s">
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="191" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="191" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="192" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="192"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156">
+      <c r="A14" s="157">
         <v>6</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184" t="s">
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="190" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="189"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="190"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160">
+      <c r="A16" s="161">
         <v>7</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="190" t="s">
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="191" t="s">
+      <c r="H16" s="192" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="192"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156">
+      <c r="A18" s="157">
         <v>8</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184" t="s">
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="190" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="189"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="190"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160">
+      <c r="A20" s="161">
         <v>9</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="190" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="190" t="s">
+      <c r="G20" s="191" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="192" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="192"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156">
+      <c r="A22" s="157">
         <v>10</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184" t="s">
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="184" t="s">
+      <c r="F22" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="185" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="189" t="s">
+      <c r="H22" s="190" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="194"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -6011,7 +6095,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6020,16 +6104,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -6058,362 +6142,364 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="175">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="179" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="180" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="180" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="181" t="s">
+      <c r="H3" s="182" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="157">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="153" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="153" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="153" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="154" t="s">
+      <c r="H5" s="155" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="155"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="161">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="165" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="166" t="s">
         <v>476</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="166" t="s">
         <v>507</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="166" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="167" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="167"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="157">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="153" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="153" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="153" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="153" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="153" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="161">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="165" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="165" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="166" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="165" t="s">
+      <c r="F11" s="166" t="s">
         <v>496</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="166" t="s">
         <v>539</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="167" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="167"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="157">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="153" t="s">
         <v>441</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="153" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="153" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="153" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="152" t="s">
+      <c r="G13" s="153" t="s">
         <v>507</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="H13" s="155" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="155"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A15" s="161">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="165" t="s">
         <v>464</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="166" t="s">
         <v>474</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="166" t="s">
         <v>493</v>
       </c>
-      <c r="G15" s="165" t="s">
+      <c r="G15" s="166" t="s">
         <v>513</v>
       </c>
-      <c r="H15" s="166" t="s">
+      <c r="H15" s="167" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="157">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="153" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="153" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="152" t="s">
+      <c r="E17" s="153" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="153" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="G17" s="153" t="s">
         <v>515</v>
       </c>
-      <c r="H17" s="154"/>
+      <c r="H17" s="155" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="155"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="161">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="165" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="165" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="166" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="166" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="165" t="s">
+      <c r="G19" s="166" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="167" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="167"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="157">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="153" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="153" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="153" t="s">
         <v>539</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="155" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="156"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -6508,23 +6594,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -6553,292 +6639,322 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174">
+      <c r="A3" s="175">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="179" t="s">
         <v>557</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="181"/>
+      <c r="E3" s="180" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="180" t="s">
+        <v>602</v>
+      </c>
+      <c r="G3" s="180"/>
+      <c r="H3" s="182"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="156">
+      <c r="A5" s="157">
         <v>2</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>542</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="153" t="s">
         <v>560</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="154"/>
+      <c r="E5" s="153" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="153" t="s">
+        <v>598</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="155"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="154"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="155"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="160">
+      <c r="A7" s="161">
         <v>3</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="E7" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="167"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156">
+      <c r="A9" s="157">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="F9" s="164" t="s">
+      <c r="F9" s="165" t="s">
         <v>568</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="160">
+      <c r="A11" s="161">
         <v>5</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="165" t="s">
         <v>559</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="165" t="s">
         <v>559</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="166" t="s">
         <v>571</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="167"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="167"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="156">
+      <c r="A13" s="157">
         <v>6</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="153" t="s">
         <v>561</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="153" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="154"/>
+      <c r="E13" s="153" t="s">
+        <v>580</v>
+      </c>
+      <c r="F13" s="153" t="s">
+        <v>590</v>
+      </c>
+      <c r="G13" s="153"/>
+      <c r="H13" s="155"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="160">
+      <c r="A14" s="168"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="155"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="161">
         <v>7</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="165" t="s">
         <v>544</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="165" t="s">
         <v>557</v>
       </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="166"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
+      <c r="E15" s="166" t="s">
+        <v>578</v>
+      </c>
+      <c r="F15" s="166" t="s">
+        <v>590</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>590</v>
+      </c>
+      <c r="H15" s="166" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="162"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
       <c r="H16" s="166"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="156">
+      <c r="A17" s="157">
         <v>8</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="154"/>
+      <c r="C17" s="153" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>581</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>581</v>
+      </c>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="155"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="155"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160">
+      <c r="A19" s="161">
         <v>9</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="165" t="s">
         <v>538</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="165" t="s">
         <v>543</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="166" t="s">
         <v>571</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="166"/>
+      <c r="F19" s="166" t="s">
+        <v>595</v>
+      </c>
+      <c r="G19" s="166" t="s">
+        <v>595</v>
+      </c>
+      <c r="H19" s="167"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="167"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156">
+      <c r="A21" s="157">
         <v>10</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="153" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="153" t="s">
         <v>576</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="153" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="154"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="155"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="155"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="156"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -6926,6 +7042,7 @@
     <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6946,16 +7063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -7170,16 +7287,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -7366,16 +7483,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -7518,16 +7635,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -7744,10 +7861,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView rightToLeft="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G248" sqref="G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7764,13 +7881,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
@@ -10996,7 +11113,7 @@
         <v>1500000</v>
       </c>
       <c r="E209" s="98">
-        <f t="shared" ref="E209:E244" si="4">C209-D209+E208</f>
+        <f t="shared" ref="E209:E259" si="4">C209-D209+E208</f>
         <v>57844420</v>
       </c>
     </row>
@@ -11511,9 +11628,234 @@
       </c>
     </row>
     <row r="244" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B244" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="C244" s="40">
+        <v>3000000</v>
+      </c>
       <c r="E244" s="98">
         <f t="shared" si="4"/>
-        <v>38055420</v>
+        <v>41055420</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B245" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C245" s="40">
+        <v>11000000</v>
+      </c>
+      <c r="E245" s="98">
+        <f t="shared" si="4"/>
+        <v>52055420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B246" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="D246" s="40">
+        <v>730000</v>
+      </c>
+      <c r="E246" s="98">
+        <f t="shared" si="4"/>
+        <v>51325420</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B247" s="80" t="s">
+        <v>585</v>
+      </c>
+      <c r="D247" s="40">
+        <v>200000</v>
+      </c>
+      <c r="E247" s="98">
+        <f t="shared" si="4"/>
+        <v>51125420</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B248" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C248" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E248" s="98">
+        <f t="shared" si="4"/>
+        <v>54125420</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B249" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="D249" s="40">
+        <v>3300000</v>
+      </c>
+      <c r="E249" s="98">
+        <f t="shared" si="4"/>
+        <v>50825420</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B250" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="D250" s="40">
+        <v>60000000</v>
+      </c>
+      <c r="E250" s="110">
+        <f t="shared" si="4"/>
+        <v>-9174580</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B251" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C251" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E251" s="110">
+        <f t="shared" si="4"/>
+        <v>-6174580</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B252" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="C252" s="40">
+        <v>9000000</v>
+      </c>
+      <c r="E252" s="98">
+        <f t="shared" si="4"/>
+        <v>2825420</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B253" s="80" t="s">
+        <v>600</v>
+      </c>
+      <c r="C253" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E253" s="98">
+        <f t="shared" si="4"/>
+        <v>5825420</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B254" s="80" t="s">
+        <v>601</v>
+      </c>
+      <c r="C254" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E254" s="98">
+        <f t="shared" si="4"/>
+        <v>8825420</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B255" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="E255" s="98">
+        <f t="shared" si="4"/>
+        <v>3825420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B256" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D256" s="40">
+        <v>1800000</v>
+      </c>
+      <c r="E256" s="98">
+        <f t="shared" si="4"/>
+        <v>2025420</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B257" s="80" t="s">
+        <v>599</v>
+      </c>
+      <c r="C257" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E257" s="98">
+        <f t="shared" si="4"/>
+        <v>5025420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B258" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="C258" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E258" s="98">
+        <f t="shared" si="4"/>
+        <v>8025420</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="195">
+        <f t="shared" si="4"/>
+        <v>8025420</v>
       </c>
     </row>
   </sheetData>
@@ -11545,16 +11887,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
       <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -11753,17 +12095,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
       <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -11890,16 +12232,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
